--- a/LubanConfig/DataTables/Datas/#ArtifactParam.xlsx
+++ b/LubanConfig/DataTables/Datas/#ArtifactParam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\601\monster-ball\LubanConfig\DataTables\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\monster-ball\LubanConfig\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5026E-7BA2-4E59-A738-C27AC965C967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E50E6-447E-454C-9DB8-CD08A0BB8A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArtifactParam" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -247,6 +247,59 @@
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Pheonixfeather</t>
+  </si>
+  <si>
+    <t>Invester</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase player's starting gold by {0}.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headhunter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase damage dealt towards monster by {0}%, but receive {1}% less point from all sources.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsterdamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceivedPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stargate</t>
+  </si>
+  <si>
+    <t>Increase points granted by using the teleporter by {0}%.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splitfire</t>
+  </si>
+  <si>
+    <t>Splitball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skillrequirement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce points required to trigger splitball's skill by {0}%.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,9 +371,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,19 +594,21 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="50" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +667,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -668,7 +726,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -701,7 +759,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -734,7 +792,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>0</v>
@@ -764,7 +822,9 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -781,21 +841,37 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50000</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1">
+        <v>200</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -812,21 +888,41 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>75000</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1">
+        <v>30</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -843,21 +939,37 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40000</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -874,21 +986,39 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -905,7 +1035,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -936,7 +1066,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -967,7 +1097,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -998,7 +1128,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1029,7 +1159,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1060,7 +1190,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1091,7 +1221,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1122,7 +1252,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1153,7 +1283,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1184,7 +1314,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1215,7 +1345,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1246,7 +1376,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1277,7 +1407,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1308,7 +1438,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1339,7 +1469,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1370,7 +1500,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1401,7 +1531,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1432,7 +1562,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1463,7 +1593,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1494,7 +1624,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1525,7 +1655,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1556,7 +1686,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1587,7 +1717,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1618,7 +1748,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1649,7 +1779,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1680,7 +1810,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1711,7 +1841,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1742,7 +1872,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1773,7 +1903,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1804,7 +1934,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1835,7 +1965,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1866,7 +1996,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1897,7 +2027,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1928,7 +2058,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1959,7 +2089,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1990,7 +2120,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2021,7 +2151,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2052,7 +2182,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2083,7 +2213,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2114,7 +2244,7 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2145,7 +2275,7 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2176,7 +2306,7 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2207,7 +2337,7 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2238,7 +2368,7 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2269,7 +2399,7 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2300,7 +2430,7 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2331,7 +2461,7 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2362,7 +2492,7 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2393,7 +2523,7 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2424,7 +2554,7 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2455,7 +2585,7 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2486,7 +2616,7 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2517,7 +2647,7 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2548,7 +2678,7 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2579,7 +2709,7 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2610,7 +2740,7 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2641,7 +2771,7 @@
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
     </row>
-    <row r="66" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2672,7 +2802,7 @@
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2703,7 +2833,7 @@
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2734,7 +2864,7 @@
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2765,7 +2895,7 @@
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
     </row>
-    <row r="70" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2796,7 +2926,7 @@
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
     </row>
-    <row r="71" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2827,7 +2957,7 @@
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2858,7 +2988,7 @@
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2889,7 +3019,7 @@
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2920,7 +3050,7 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2951,7 +3081,7 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2982,7 +3112,7 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3013,7 +3143,7 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3044,7 +3174,7 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3075,7 +3205,7 @@
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3106,7 +3236,7 @@
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3137,7 +3267,7 @@
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
-    <row r="82" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3168,7 +3298,7 @@
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
     </row>
-    <row r="83" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3199,7 +3329,7 @@
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
     </row>
-    <row r="84" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3230,7 +3360,7 @@
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
     </row>
-    <row r="85" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3261,7 +3391,7 @@
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
     </row>
-    <row r="86" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3292,7 +3422,7 @@
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
     </row>
-    <row r="87" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3323,7 +3453,7 @@
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3354,7 +3484,7 @@
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
     </row>
-    <row r="89" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3385,7 +3515,7 @@
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
     </row>
-    <row r="90" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3416,7 +3546,7 @@
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
     </row>
-    <row r="91" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3447,7 +3577,7 @@
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
     </row>
-    <row r="92" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3478,7 +3608,7 @@
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
     </row>
-    <row r="93" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3509,7 +3639,7 @@
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
     </row>
-    <row r="94" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3540,7 +3670,7 @@
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
     </row>
-    <row r="95" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3571,7 +3701,7 @@
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
     </row>
-    <row r="96" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3602,7 +3732,7 @@
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
     </row>
-    <row r="97" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3633,7 +3763,7 @@
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
     </row>
-    <row r="98" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3664,7 +3794,7 @@
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
     </row>
-    <row r="99" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3695,7 +3825,7 @@
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
     </row>
-    <row r="100" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3726,7 +3856,7 @@
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
     </row>
-    <row r="101" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3757,7 +3887,7 @@
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
     </row>
-    <row r="102" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3788,7 +3918,7 @@
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
     </row>
-    <row r="103" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3819,7 +3949,7 @@
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
     </row>
-    <row r="104" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3850,7 +3980,7 @@
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
     </row>
-    <row r="105" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3881,7 +4011,7 @@
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
     </row>
-    <row r="106" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3912,7 +4042,7 @@
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
     </row>
-    <row r="107" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3943,7 +4073,7 @@
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
     </row>
-    <row r="108" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3974,7 +4104,7 @@
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
     </row>
-    <row r="109" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4005,7 +4135,7 @@
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
     </row>
-    <row r="110" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4036,7 +4166,7 @@
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
     </row>
-    <row r="111" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4067,7 +4197,7 @@
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
     </row>
-    <row r="112" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4098,7 +4228,7 @@
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
     </row>
-    <row r="113" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4129,7 +4259,7 @@
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
     </row>
-    <row r="114" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4160,7 +4290,7 @@
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
     </row>
-    <row r="115" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4191,7 +4321,7 @@
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
     </row>
-    <row r="116" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4222,7 +4352,7 @@
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
     </row>
-    <row r="117" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4253,7 +4383,7 @@
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
     </row>
-    <row r="118" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4284,7 +4414,7 @@
       <c r="AB118" s="1"/>
       <c r="AC118" s="1"/>
     </row>
-    <row r="119" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4315,7 +4445,7 @@
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
     </row>
-    <row r="120" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4346,7 +4476,7 @@
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
     </row>
-    <row r="121" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4377,7 +4507,7 @@
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
     </row>
-    <row r="122" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4408,7 +4538,7 @@
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
     </row>
-    <row r="123" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4439,7 +4569,7 @@
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
     </row>
-    <row r="124" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4470,7 +4600,7 @@
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
     </row>
-    <row r="125" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4501,7 +4631,7 @@
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
     </row>
-    <row r="126" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4532,7 +4662,7 @@
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
     </row>
-    <row r="127" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4563,7 +4693,7 @@
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
     </row>
-    <row r="128" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4594,7 +4724,7 @@
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
     </row>
-    <row r="129" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4625,7 +4755,7 @@
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
     </row>
-    <row r="130" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4656,7 +4786,7 @@
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
     </row>
-    <row r="131" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4687,7 +4817,7 @@
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
     </row>
-    <row r="132" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4718,7 +4848,7 @@
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
     </row>
-    <row r="133" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4749,7 +4879,7 @@
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
     </row>
-    <row r="134" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4780,7 +4910,7 @@
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
     </row>
-    <row r="135" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4811,7 +4941,7 @@
       <c r="AB135" s="1"/>
       <c r="AC135" s="1"/>
     </row>
-    <row r="136" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4842,7 +4972,7 @@
       <c r="AB136" s="1"/>
       <c r="AC136" s="1"/>
     </row>
-    <row r="137" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4873,7 +5003,7 @@
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
     </row>
-    <row r="138" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4904,7 +5034,7 @@
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
     </row>
-    <row r="139" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4935,7 +5065,7 @@
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
     </row>
-    <row r="140" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4966,7 +5096,7 @@
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
     </row>
-    <row r="141" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4997,7 +5127,7 @@
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
     </row>
-    <row r="142" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5028,7 +5158,7 @@
       <c r="AB142" s="1"/>
       <c r="AC142" s="1"/>
     </row>
-    <row r="143" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5059,7 +5189,7 @@
       <c r="AB143" s="1"/>
       <c r="AC143" s="1"/>
     </row>
-    <row r="144" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5090,7 +5220,7 @@
       <c r="AB144" s="1"/>
       <c r="AC144" s="1"/>
     </row>
-    <row r="145" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5121,7 +5251,7 @@
       <c r="AB145" s="1"/>
       <c r="AC145" s="1"/>
     </row>
-    <row r="146" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5152,7 +5282,7 @@
       <c r="AB146" s="1"/>
       <c r="AC146" s="1"/>
     </row>
-    <row r="147" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5183,7 +5313,7 @@
       <c r="AB147" s="1"/>
       <c r="AC147" s="1"/>
     </row>
-    <row r="148" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5214,7 +5344,7 @@
       <c r="AB148" s="1"/>
       <c r="AC148" s="1"/>
     </row>
-    <row r="149" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5245,7 +5375,7 @@
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
     </row>
-    <row r="150" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5276,7 +5406,7 @@
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
     </row>
-    <row r="151" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5307,7 +5437,7 @@
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
     </row>
-    <row r="152" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5338,7 +5468,7 @@
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
     </row>
-    <row r="153" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5369,7 +5499,7 @@
       <c r="AB153" s="1"/>
       <c r="AC153" s="1"/>
     </row>
-    <row r="154" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5400,7 +5530,7 @@
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
     </row>
-    <row r="155" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5431,7 +5561,7 @@
       <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
     </row>
-    <row r="156" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5462,7 +5592,7 @@
       <c r="AB156" s="1"/>
       <c r="AC156" s="1"/>
     </row>
-    <row r="157" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5493,7 +5623,7 @@
       <c r="AB157" s="1"/>
       <c r="AC157" s="1"/>
     </row>
-    <row r="158" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5524,7 +5654,7 @@
       <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
     </row>
-    <row r="159" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5555,7 +5685,7 @@
       <c r="AB159" s="1"/>
       <c r="AC159" s="1"/>
     </row>
-    <row r="160" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5586,7 +5716,7 @@
       <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
     </row>
-    <row r="161" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5617,7 +5747,7 @@
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
     </row>
-    <row r="162" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5648,7 +5778,7 @@
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
     </row>
-    <row r="163" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5679,7 +5809,7 @@
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
     </row>
-    <row r="164" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5710,7 +5840,7 @@
       <c r="AB164" s="1"/>
       <c r="AC164" s="1"/>
     </row>
-    <row r="165" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5741,7 +5871,7 @@
       <c r="AB165" s="1"/>
       <c r="AC165" s="1"/>
     </row>
-    <row r="166" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5772,7 +5902,7 @@
       <c r="AB166" s="1"/>
       <c r="AC166" s="1"/>
     </row>
-    <row r="167" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5803,7 +5933,7 @@
       <c r="AB167" s="1"/>
       <c r="AC167" s="1"/>
     </row>
-    <row r="168" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5834,7 +5964,7 @@
       <c r="AB168" s="1"/>
       <c r="AC168" s="1"/>
     </row>
-    <row r="169" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5865,7 +5995,7 @@
       <c r="AB169" s="1"/>
       <c r="AC169" s="1"/>
     </row>
-    <row r="170" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5896,7 +6026,7 @@
       <c r="AB170" s="1"/>
       <c r="AC170" s="1"/>
     </row>
-    <row r="171" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5927,7 +6057,7 @@
       <c r="AB171" s="1"/>
       <c r="AC171" s="1"/>
     </row>
-    <row r="172" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5958,7 +6088,7 @@
       <c r="AB172" s="1"/>
       <c r="AC172" s="1"/>
     </row>
-    <row r="173" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5989,7 +6119,7 @@
       <c r="AB173" s="1"/>
       <c r="AC173" s="1"/>
     </row>
-    <row r="174" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6020,7 +6150,7 @@
       <c r="AB174" s="1"/>
       <c r="AC174" s="1"/>
     </row>
-    <row r="175" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6051,7 +6181,7 @@
       <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
     </row>
-    <row r="176" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6082,7 +6212,7 @@
       <c r="AB176" s="1"/>
       <c r="AC176" s="1"/>
     </row>
-    <row r="177" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6113,7 +6243,7 @@
       <c r="AB177" s="1"/>
       <c r="AC177" s="1"/>
     </row>
-    <row r="178" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6144,7 +6274,7 @@
       <c r="AB178" s="1"/>
       <c r="AC178" s="1"/>
     </row>
-    <row r="179" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6175,7 +6305,7 @@
       <c r="AB179" s="1"/>
       <c r="AC179" s="1"/>
     </row>
-    <row r="180" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6206,7 +6336,7 @@
       <c r="AB180" s="1"/>
       <c r="AC180" s="1"/>
     </row>
-    <row r="181" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6237,7 +6367,7 @@
       <c r="AB181" s="1"/>
       <c r="AC181" s="1"/>
     </row>
-    <row r="182" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6268,7 +6398,7 @@
       <c r="AB182" s="1"/>
       <c r="AC182" s="1"/>
     </row>
-    <row r="183" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6299,7 +6429,7 @@
       <c r="AB183" s="1"/>
       <c r="AC183" s="1"/>
     </row>
-    <row r="184" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6330,7 +6460,7 @@
       <c r="AB184" s="1"/>
       <c r="AC184" s="1"/>
     </row>
-    <row r="185" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6361,7 +6491,7 @@
       <c r="AB185" s="1"/>
       <c r="AC185" s="1"/>
     </row>
-    <row r="186" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6392,7 +6522,7 @@
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
     </row>
-    <row r="187" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6423,7 +6553,7 @@
       <c r="AB187" s="1"/>
       <c r="AC187" s="1"/>
     </row>
-    <row r="188" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6454,7 +6584,7 @@
       <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
     </row>
-    <row r="189" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6485,7 +6615,7 @@
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
     </row>
-    <row r="190" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6516,7 +6646,7 @@
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
     </row>
-    <row r="191" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6547,7 +6677,7 @@
       <c r="AB191" s="1"/>
       <c r="AC191" s="1"/>
     </row>
-    <row r="192" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6578,7 +6708,7 @@
       <c r="AB192" s="1"/>
       <c r="AC192" s="1"/>
     </row>
-    <row r="193" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6609,7 +6739,7 @@
       <c r="AB193" s="1"/>
       <c r="AC193" s="1"/>
     </row>
-    <row r="194" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6640,7 +6770,7 @@
       <c r="AB194" s="1"/>
       <c r="AC194" s="1"/>
     </row>
-    <row r="195" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6671,7 +6801,7 @@
       <c r="AB195" s="1"/>
       <c r="AC195" s="1"/>
     </row>
-    <row r="196" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6702,7 +6832,7 @@
       <c r="AB196" s="1"/>
       <c r="AC196" s="1"/>
     </row>
-    <row r="197" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6733,7 +6863,7 @@
       <c r="AB197" s="1"/>
       <c r="AC197" s="1"/>
     </row>
-    <row r="198" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6764,7 +6894,7 @@
       <c r="AB198" s="1"/>
       <c r="AC198" s="1"/>
     </row>
-    <row r="199" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6795,7 +6925,7 @@
       <c r="AB199" s="1"/>
       <c r="AC199" s="1"/>
     </row>
-    <row r="200" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6826,7 +6956,7 @@
       <c r="AB200" s="1"/>
       <c r="AC200" s="1"/>
     </row>
-    <row r="201" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6857,7 +6987,7 @@
       <c r="AB201" s="1"/>
       <c r="AC201" s="1"/>
     </row>
-    <row r="202" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6888,7 +7018,7 @@
       <c r="AB202" s="1"/>
       <c r="AC202" s="1"/>
     </row>
-    <row r="203" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6919,7 +7049,7 @@
       <c r="AB203" s="1"/>
       <c r="AC203" s="1"/>
     </row>
-    <row r="204" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6950,7 +7080,7 @@
       <c r="AB204" s="1"/>
       <c r="AC204" s="1"/>
     </row>
-    <row r="205" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6981,7 +7111,7 @@
       <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
     </row>
-    <row r="206" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7012,7 +7142,7 @@
       <c r="AB206" s="1"/>
       <c r="AC206" s="1"/>
     </row>
-    <row r="207" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7043,7 +7173,7 @@
       <c r="AB207" s="1"/>
       <c r="AC207" s="1"/>
     </row>
-    <row r="208" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7074,7 +7204,7 @@
       <c r="AB208" s="1"/>
       <c r="AC208" s="1"/>
     </row>
-    <row r="209" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7105,7 +7235,7 @@
       <c r="AB209" s="1"/>
       <c r="AC209" s="1"/>
     </row>
-    <row r="210" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7136,7 +7266,7 @@
       <c r="AB210" s="1"/>
       <c r="AC210" s="1"/>
     </row>
-    <row r="211" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7167,7 +7297,7 @@
       <c r="AB211" s="1"/>
       <c r="AC211" s="1"/>
     </row>
-    <row r="212" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7198,7 +7328,7 @@
       <c r="AB212" s="1"/>
       <c r="AC212" s="1"/>
     </row>
-    <row r="213" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7229,7 +7359,7 @@
       <c r="AB213" s="1"/>
       <c r="AC213" s="1"/>
     </row>
-    <row r="214" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7260,7 +7390,7 @@
       <c r="AB214" s="1"/>
       <c r="AC214" s="1"/>
     </row>
-    <row r="215" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7291,7 +7421,7 @@
       <c r="AB215" s="1"/>
       <c r="AC215" s="1"/>
     </row>
-    <row r="216" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7322,7 +7452,7 @@
       <c r="AB216" s="1"/>
       <c r="AC216" s="1"/>
     </row>
-    <row r="217" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7353,7 +7483,7 @@
       <c r="AB217" s="1"/>
       <c r="AC217" s="1"/>
     </row>
-    <row r="218" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7384,7 +7514,7 @@
       <c r="AB218" s="1"/>
       <c r="AC218" s="1"/>
     </row>
-    <row r="219" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7415,7 +7545,7 @@
       <c r="AB219" s="1"/>
       <c r="AC219" s="1"/>
     </row>
-    <row r="220" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7446,7 +7576,7 @@
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
     </row>
-    <row r="221" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7477,7 +7607,7 @@
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
     </row>
-    <row r="222" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7508,7 +7638,7 @@
       <c r="AB222" s="1"/>
       <c r="AC222" s="1"/>
     </row>
-    <row r="223" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7539,7 +7669,7 @@
       <c r="AB223" s="1"/>
       <c r="AC223" s="1"/>
     </row>
-    <row r="224" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7570,7 +7700,7 @@
       <c r="AB224" s="1"/>
       <c r="AC224" s="1"/>
     </row>
-    <row r="225" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7601,7 +7731,7 @@
       <c r="AB225" s="1"/>
       <c r="AC225" s="1"/>
     </row>
-    <row r="226" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7632,7 +7762,7 @@
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
     </row>
-    <row r="227" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7663,7 +7793,7 @@
       <c r="AB227" s="1"/>
       <c r="AC227" s="1"/>
     </row>
-    <row r="228" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7694,7 +7824,7 @@
       <c r="AB228" s="1"/>
       <c r="AC228" s="1"/>
     </row>
-    <row r="229" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7725,7 +7855,7 @@
       <c r="AB229" s="1"/>
       <c r="AC229" s="1"/>
     </row>
-    <row r="230" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7756,7 +7886,7 @@
       <c r="AB230" s="1"/>
       <c r="AC230" s="1"/>
     </row>
-    <row r="231" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7787,7 +7917,7 @@
       <c r="AB231" s="1"/>
       <c r="AC231" s="1"/>
     </row>
-    <row r="232" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7818,7 +7948,7 @@
       <c r="AB232" s="1"/>
       <c r="AC232" s="1"/>
     </row>
-    <row r="233" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7849,7 +7979,7 @@
       <c r="AB233" s="1"/>
       <c r="AC233" s="1"/>
     </row>
-    <row r="234" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7880,7 +8010,7 @@
       <c r="AB234" s="1"/>
       <c r="AC234" s="1"/>
     </row>
-    <row r="235" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7911,7 +8041,7 @@
       <c r="AB235" s="1"/>
       <c r="AC235" s="1"/>
     </row>
-    <row r="236" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7942,7 +8072,7 @@
       <c r="AB236" s="1"/>
       <c r="AC236" s="1"/>
     </row>
-    <row r="237" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7973,7 +8103,7 @@
       <c r="AB237" s="1"/>
       <c r="AC237" s="1"/>
     </row>
-    <row r="238" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8004,7 +8134,7 @@
       <c r="AB238" s="1"/>
       <c r="AC238" s="1"/>
     </row>
-    <row r="239" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8035,7 +8165,7 @@
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
     </row>
-    <row r="240" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8066,7 +8196,7 @@
       <c r="AB240" s="1"/>
       <c r="AC240" s="1"/>
     </row>
-    <row r="241" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8097,7 +8227,7 @@
       <c r="AB241" s="1"/>
       <c r="AC241" s="1"/>
     </row>
-    <row r="242" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8128,7 +8258,7 @@
       <c r="AB242" s="1"/>
       <c r="AC242" s="1"/>
     </row>
-    <row r="243" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8159,7 +8289,7 @@
       <c r="AB243" s="1"/>
       <c r="AC243" s="1"/>
     </row>
-    <row r="244" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8190,7 +8320,7 @@
       <c r="AB244" s="1"/>
       <c r="AC244" s="1"/>
     </row>
-    <row r="245" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8221,7 +8351,7 @@
       <c r="AB245" s="1"/>
       <c r="AC245" s="1"/>
     </row>
-    <row r="246" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8252,7 +8382,7 @@
       <c r="AB246" s="1"/>
       <c r="AC246" s="1"/>
     </row>
-    <row r="247" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8283,7 +8413,7 @@
       <c r="AB247" s="1"/>
       <c r="AC247" s="1"/>
     </row>
-    <row r="248" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8314,7 +8444,7 @@
       <c r="AB248" s="1"/>
       <c r="AC248" s="1"/>
     </row>
-    <row r="249" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8345,7 +8475,7 @@
       <c r="AB249" s="1"/>
       <c r="AC249" s="1"/>
     </row>
-    <row r="250" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8376,7 +8506,7 @@
       <c r="AB250" s="1"/>
       <c r="AC250" s="1"/>
     </row>
-    <row r="251" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8407,7 +8537,7 @@
       <c r="AB251" s="1"/>
       <c r="AC251" s="1"/>
     </row>
-    <row r="252" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8438,7 +8568,7 @@
       <c r="AB252" s="1"/>
       <c r="AC252" s="1"/>
     </row>
-    <row r="253" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8469,7 +8599,7 @@
       <c r="AB253" s="1"/>
       <c r="AC253" s="1"/>
     </row>
-    <row r="254" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8500,7 +8630,7 @@
       <c r="AB254" s="1"/>
       <c r="AC254" s="1"/>
     </row>
-    <row r="255" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8531,7 +8661,7 @@
       <c r="AB255" s="1"/>
       <c r="AC255" s="1"/>
     </row>
-    <row r="256" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8562,7 +8692,7 @@
       <c r="AB256" s="1"/>
       <c r="AC256" s="1"/>
     </row>
-    <row r="257" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8593,7 +8723,7 @@
       <c r="AB257" s="1"/>
       <c r="AC257" s="1"/>
     </row>
-    <row r="258" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8624,7 +8754,7 @@
       <c r="AB258" s="1"/>
       <c r="AC258" s="1"/>
     </row>
-    <row r="259" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8655,7 +8785,7 @@
       <c r="AB259" s="1"/>
       <c r="AC259" s="1"/>
     </row>
-    <row r="260" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8686,7 +8816,7 @@
       <c r="AB260" s="1"/>
       <c r="AC260" s="1"/>
     </row>
-    <row r="261" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8717,7 +8847,7 @@
       <c r="AB261" s="1"/>
       <c r="AC261" s="1"/>
     </row>
-    <row r="262" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8748,7 +8878,7 @@
       <c r="AB262" s="1"/>
       <c r="AC262" s="1"/>
     </row>
-    <row r="263" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8779,7 +8909,7 @@
       <c r="AB263" s="1"/>
       <c r="AC263" s="1"/>
     </row>
-    <row r="264" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8810,7 +8940,7 @@
       <c r="AB264" s="1"/>
       <c r="AC264" s="1"/>
     </row>
-    <row r="265" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8841,7 +8971,7 @@
       <c r="AB265" s="1"/>
       <c r="AC265" s="1"/>
     </row>
-    <row r="266" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8872,7 +9002,7 @@
       <c r="AB266" s="1"/>
       <c r="AC266" s="1"/>
     </row>
-    <row r="267" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8903,7 +9033,7 @@
       <c r="AB267" s="1"/>
       <c r="AC267" s="1"/>
     </row>
-    <row r="268" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8934,7 +9064,7 @@
       <c r="AB268" s="1"/>
       <c r="AC268" s="1"/>
     </row>
-    <row r="269" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8965,7 +9095,7 @@
       <c r="AB269" s="1"/>
       <c r="AC269" s="1"/>
     </row>
-    <row r="270" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8996,7 +9126,7 @@
       <c r="AB270" s="1"/>
       <c r="AC270" s="1"/>
     </row>
-    <row r="271" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9027,7 +9157,7 @@
       <c r="AB271" s="1"/>
       <c r="AC271" s="1"/>
     </row>
-    <row r="272" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9058,7 +9188,7 @@
       <c r="AB272" s="1"/>
       <c r="AC272" s="1"/>
     </row>
-    <row r="273" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9089,7 +9219,7 @@
       <c r="AB273" s="1"/>
       <c r="AC273" s="1"/>
     </row>
-    <row r="274" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9120,7 +9250,7 @@
       <c r="AB274" s="1"/>
       <c r="AC274" s="1"/>
     </row>
-    <row r="275" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9151,7 +9281,7 @@
       <c r="AB275" s="1"/>
       <c r="AC275" s="1"/>
     </row>
-    <row r="276" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9182,7 +9312,7 @@
       <c r="AB276" s="1"/>
       <c r="AC276" s="1"/>
     </row>
-    <row r="277" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9213,7 +9343,7 @@
       <c r="AB277" s="1"/>
       <c r="AC277" s="1"/>
     </row>
-    <row r="278" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9244,7 +9374,7 @@
       <c r="AB278" s="1"/>
       <c r="AC278" s="1"/>
     </row>
-    <row r="279" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9275,7 +9405,7 @@
       <c r="AB279" s="1"/>
       <c r="AC279" s="1"/>
     </row>
-    <row r="280" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9306,7 +9436,7 @@
       <c r="AB280" s="1"/>
       <c r="AC280" s="1"/>
     </row>
-    <row r="281" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9337,7 +9467,7 @@
       <c r="AB281" s="1"/>
       <c r="AC281" s="1"/>
     </row>
-    <row r="282" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9368,7 +9498,7 @@
       <c r="AB282" s="1"/>
       <c r="AC282" s="1"/>
     </row>
-    <row r="283" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9399,7 +9529,7 @@
       <c r="AB283" s="1"/>
       <c r="AC283" s="1"/>
     </row>
-    <row r="284" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9430,7 +9560,7 @@
       <c r="AB284" s="1"/>
       <c r="AC284" s="1"/>
     </row>
-    <row r="285" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9461,7 +9591,7 @@
       <c r="AB285" s="1"/>
       <c r="AC285" s="1"/>
     </row>
-    <row r="286" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9492,7 +9622,7 @@
       <c r="AB286" s="1"/>
       <c r="AC286" s="1"/>
     </row>
-    <row r="287" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9523,7 +9653,7 @@
       <c r="AB287" s="1"/>
       <c r="AC287" s="1"/>
     </row>
-    <row r="288" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9554,7 +9684,7 @@
       <c r="AB288" s="1"/>
       <c r="AC288" s="1"/>
     </row>
-    <row r="289" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9585,7 +9715,7 @@
       <c r="AB289" s="1"/>
       <c r="AC289" s="1"/>
     </row>
-    <row r="290" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9616,7 +9746,7 @@
       <c r="AB290" s="1"/>
       <c r="AC290" s="1"/>
     </row>
-    <row r="291" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9647,7 +9777,7 @@
       <c r="AB291" s="1"/>
       <c r="AC291" s="1"/>
     </row>
-    <row r="292" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9678,7 +9808,7 @@
       <c r="AB292" s="1"/>
       <c r="AC292" s="1"/>
     </row>
-    <row r="293" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9709,7 +9839,7 @@
       <c r="AB293" s="1"/>
       <c r="AC293" s="1"/>
     </row>
-    <row r="294" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9740,7 +9870,7 @@
       <c r="AB294" s="1"/>
       <c r="AC294" s="1"/>
     </row>
-    <row r="295" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9771,7 +9901,7 @@
       <c r="AB295" s="1"/>
       <c r="AC295" s="1"/>
     </row>
-    <row r="296" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9802,7 +9932,7 @@
       <c r="AB296" s="1"/>
       <c r="AC296" s="1"/>
     </row>
-    <row r="297" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9833,7 +9963,7 @@
       <c r="AB297" s="1"/>
       <c r="AC297" s="1"/>
     </row>
-    <row r="298" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9864,7 +9994,7 @@
       <c r="AB298" s="1"/>
       <c r="AC298" s="1"/>
     </row>
-    <row r="299" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9895,7 +10025,7 @@
       <c r="AB299" s="1"/>
       <c r="AC299" s="1"/>
     </row>
-    <row r="300" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9926,7 +10056,7 @@
       <c r="AB300" s="1"/>
       <c r="AC300" s="1"/>
     </row>
-    <row r="301" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9957,7 +10087,7 @@
       <c r="AB301" s="1"/>
       <c r="AC301" s="1"/>
     </row>
-    <row r="302" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9988,7 +10118,7 @@
       <c r="AB302" s="1"/>
       <c r="AC302" s="1"/>
     </row>
-    <row r="303" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -10019,7 +10149,7 @@
       <c r="AB303" s="1"/>
       <c r="AC303" s="1"/>
     </row>
-    <row r="304" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -10050,7 +10180,7 @@
       <c r="AB304" s="1"/>
       <c r="AC304" s="1"/>
     </row>
-    <row r="305" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -10081,7 +10211,7 @@
       <c r="AB305" s="1"/>
       <c r="AC305" s="1"/>
     </row>
-    <row r="306" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -10112,7 +10242,7 @@
       <c r="AB306" s="1"/>
       <c r="AC306" s="1"/>
     </row>
-    <row r="307" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10143,7 +10273,7 @@
       <c r="AB307" s="1"/>
       <c r="AC307" s="1"/>
     </row>
-    <row r="308" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10174,7 +10304,7 @@
       <c r="AB308" s="1"/>
       <c r="AC308" s="1"/>
     </row>
-    <row r="309" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -10205,7 +10335,7 @@
       <c r="AB309" s="1"/>
       <c r="AC309" s="1"/>
     </row>
-    <row r="310" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10236,7 +10366,7 @@
       <c r="AB310" s="1"/>
       <c r="AC310" s="1"/>
     </row>
-    <row r="311" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10267,7 +10397,7 @@
       <c r="AB311" s="1"/>
       <c r="AC311" s="1"/>
     </row>
-    <row r="312" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10298,7 +10428,7 @@
       <c r="AB312" s="1"/>
       <c r="AC312" s="1"/>
     </row>
-    <row r="313" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10329,7 +10459,7 @@
       <c r="AB313" s="1"/>
       <c r="AC313" s="1"/>
     </row>
-    <row r="314" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10360,7 +10490,7 @@
       <c r="AB314" s="1"/>
       <c r="AC314" s="1"/>
     </row>
-    <row r="315" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10391,7 +10521,7 @@
       <c r="AB315" s="1"/>
       <c r="AC315" s="1"/>
     </row>
-    <row r="316" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10422,7 +10552,7 @@
       <c r="AB316" s="1"/>
       <c r="AC316" s="1"/>
     </row>
-    <row r="317" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10453,7 +10583,7 @@
       <c r="AB317" s="1"/>
       <c r="AC317" s="1"/>
     </row>
-    <row r="318" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10484,7 +10614,7 @@
       <c r="AB318" s="1"/>
       <c r="AC318" s="1"/>
     </row>
-    <row r="319" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10515,7 +10645,7 @@
       <c r="AB319" s="1"/>
       <c r="AC319" s="1"/>
     </row>
-    <row r="320" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10546,7 +10676,7 @@
       <c r="AB320" s="1"/>
       <c r="AC320" s="1"/>
     </row>
-    <row r="321" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10577,7 +10707,7 @@
       <c r="AB321" s="1"/>
       <c r="AC321" s="1"/>
     </row>
-    <row r="322" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10608,7 +10738,7 @@
       <c r="AB322" s="1"/>
       <c r="AC322" s="1"/>
     </row>
-    <row r="323" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10639,7 +10769,7 @@
       <c r="AB323" s="1"/>
       <c r="AC323" s="1"/>
     </row>
-    <row r="324" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10670,7 +10800,7 @@
       <c r="AB324" s="1"/>
       <c r="AC324" s="1"/>
     </row>
-    <row r="325" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10701,7 +10831,7 @@
       <c r="AB325" s="1"/>
       <c r="AC325" s="1"/>
     </row>
-    <row r="326" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10732,7 +10862,7 @@
       <c r="AB326" s="1"/>
       <c r="AC326" s="1"/>
     </row>
-    <row r="327" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10763,7 +10893,7 @@
       <c r="AB327" s="1"/>
       <c r="AC327" s="1"/>
     </row>
-    <row r="328" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10794,7 +10924,7 @@
       <c r="AB328" s="1"/>
       <c r="AC328" s="1"/>
     </row>
-    <row r="329" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10825,7 +10955,7 @@
       <c r="AB329" s="1"/>
       <c r="AC329" s="1"/>
     </row>
-    <row r="330" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10856,7 +10986,7 @@
       <c r="AB330" s="1"/>
       <c r="AC330" s="1"/>
     </row>
-    <row r="331" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10887,7 +11017,7 @@
       <c r="AB331" s="1"/>
       <c r="AC331" s="1"/>
     </row>
-    <row r="332" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10918,7 +11048,7 @@
       <c r="AB332" s="1"/>
       <c r="AC332" s="1"/>
     </row>
-    <row r="333" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10949,7 +11079,7 @@
       <c r="AB333" s="1"/>
       <c r="AC333" s="1"/>
     </row>
-    <row r="334" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10980,7 +11110,7 @@
       <c r="AB334" s="1"/>
       <c r="AC334" s="1"/>
     </row>
-    <row r="335" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -11011,7 +11141,7 @@
       <c r="AB335" s="1"/>
       <c r="AC335" s="1"/>
     </row>
-    <row r="336" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -11042,7 +11172,7 @@
       <c r="AB336" s="1"/>
       <c r="AC336" s="1"/>
     </row>
-    <row r="337" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -11073,7 +11203,7 @@
       <c r="AB337" s="1"/>
       <c r="AC337" s="1"/>
     </row>
-    <row r="338" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -11104,7 +11234,7 @@
       <c r="AB338" s="1"/>
       <c r="AC338" s="1"/>
     </row>
-    <row r="339" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -11135,7 +11265,7 @@
       <c r="AB339" s="1"/>
       <c r="AC339" s="1"/>
     </row>
-    <row r="340" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -11166,7 +11296,7 @@
       <c r="AB340" s="1"/>
       <c r="AC340" s="1"/>
     </row>
-    <row r="341" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -11197,7 +11327,7 @@
       <c r="AB341" s="1"/>
       <c r="AC341" s="1"/>
     </row>
-    <row r="342" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -11228,7 +11358,7 @@
       <c r="AB342" s="1"/>
       <c r="AC342" s="1"/>
     </row>
-    <row r="343" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -11259,7 +11389,7 @@
       <c r="AB343" s="1"/>
       <c r="AC343" s="1"/>
     </row>
-    <row r="344" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -11290,7 +11420,7 @@
       <c r="AB344" s="1"/>
       <c r="AC344" s="1"/>
     </row>
-    <row r="345" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -11321,7 +11451,7 @@
       <c r="AB345" s="1"/>
       <c r="AC345" s="1"/>
     </row>
-    <row r="346" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -11352,7 +11482,7 @@
       <c r="AB346" s="1"/>
       <c r="AC346" s="1"/>
     </row>
-    <row r="347" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -11383,7 +11513,7 @@
       <c r="AB347" s="1"/>
       <c r="AC347" s="1"/>
     </row>
-    <row r="348" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -11414,7 +11544,7 @@
       <c r="AB348" s="1"/>
       <c r="AC348" s="1"/>
     </row>
-    <row r="349" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -11445,7 +11575,7 @@
       <c r="AB349" s="1"/>
       <c r="AC349" s="1"/>
     </row>
-    <row r="350" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -11476,7 +11606,7 @@
       <c r="AB350" s="1"/>
       <c r="AC350" s="1"/>
     </row>
-    <row r="351" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11507,7 +11637,7 @@
       <c r="AB351" s="1"/>
       <c r="AC351" s="1"/>
     </row>
-    <row r="352" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11538,7 +11668,7 @@
       <c r="AB352" s="1"/>
       <c r="AC352" s="1"/>
     </row>
-    <row r="353" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11569,7 +11699,7 @@
       <c r="AB353" s="1"/>
       <c r="AC353" s="1"/>
     </row>
-    <row r="354" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -11600,7 +11730,7 @@
       <c r="AB354" s="1"/>
       <c r="AC354" s="1"/>
     </row>
-    <row r="355" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -11631,7 +11761,7 @@
       <c r="AB355" s="1"/>
       <c r="AC355" s="1"/>
     </row>
-    <row r="356" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11662,7 +11792,7 @@
       <c r="AB356" s="1"/>
       <c r="AC356" s="1"/>
     </row>
-    <row r="357" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -11693,7 +11823,7 @@
       <c r="AB357" s="1"/>
       <c r="AC357" s="1"/>
     </row>
-    <row r="358" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -11724,7 +11854,7 @@
       <c r="AB358" s="1"/>
       <c r="AC358" s="1"/>
     </row>
-    <row r="359" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -11755,7 +11885,7 @@
       <c r="AB359" s="1"/>
       <c r="AC359" s="1"/>
     </row>
-    <row r="360" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -11786,7 +11916,7 @@
       <c r="AB360" s="1"/>
       <c r="AC360" s="1"/>
     </row>
-    <row r="361" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -11817,7 +11947,7 @@
       <c r="AB361" s="1"/>
       <c r="AC361" s="1"/>
     </row>
-    <row r="362" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -11848,7 +11978,7 @@
       <c r="AB362" s="1"/>
       <c r="AC362" s="1"/>
     </row>
-    <row r="363" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11879,7 +12009,7 @@
       <c r="AB363" s="1"/>
       <c r="AC363" s="1"/>
     </row>
-    <row r="364" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11910,7 +12040,7 @@
       <c r="AB364" s="1"/>
       <c r="AC364" s="1"/>
     </row>
-    <row r="365" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11941,7 +12071,7 @@
       <c r="AB365" s="1"/>
       <c r="AC365" s="1"/>
     </row>
-    <row r="366" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11972,7 +12102,7 @@
       <c r="AB366" s="1"/>
       <c r="AC366" s="1"/>
     </row>
-    <row r="367" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -12003,7 +12133,7 @@
       <c r="AB367" s="1"/>
       <c r="AC367" s="1"/>
     </row>
-    <row r="368" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -12034,7 +12164,7 @@
       <c r="AB368" s="1"/>
       <c r="AC368" s="1"/>
     </row>
-    <row r="369" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -12065,7 +12195,7 @@
       <c r="AB369" s="1"/>
       <c r="AC369" s="1"/>
     </row>
-    <row r="370" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -12096,7 +12226,7 @@
       <c r="AB370" s="1"/>
       <c r="AC370" s="1"/>
     </row>
-    <row r="371" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -12127,7 +12257,7 @@
       <c r="AB371" s="1"/>
       <c r="AC371" s="1"/>
     </row>
-    <row r="372" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -12158,7 +12288,7 @@
       <c r="AB372" s="1"/>
       <c r="AC372" s="1"/>
     </row>
-    <row r="373" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -12189,7 +12319,7 @@
       <c r="AB373" s="1"/>
       <c r="AC373" s="1"/>
     </row>
-    <row r="374" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -12220,7 +12350,7 @@
       <c r="AB374" s="1"/>
       <c r="AC374" s="1"/>
     </row>
-    <row r="375" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -12251,7 +12381,7 @@
       <c r="AB375" s="1"/>
       <c r="AC375" s="1"/>
     </row>
-    <row r="376" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -12282,7 +12412,7 @@
       <c r="AB376" s="1"/>
       <c r="AC376" s="1"/>
     </row>
-    <row r="377" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -12313,7 +12443,7 @@
       <c r="AB377" s="1"/>
       <c r="AC377" s="1"/>
     </row>
-    <row r="378" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -12344,7 +12474,7 @@
       <c r="AB378" s="1"/>
       <c r="AC378" s="1"/>
     </row>
-    <row r="379" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -12375,7 +12505,7 @@
       <c r="AB379" s="1"/>
       <c r="AC379" s="1"/>
     </row>
-    <row r="380" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -12406,7 +12536,7 @@
       <c r="AB380" s="1"/>
       <c r="AC380" s="1"/>
     </row>
-    <row r="381" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -12437,7 +12567,7 @@
       <c r="AB381" s="1"/>
       <c r="AC381" s="1"/>
     </row>
-    <row r="382" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -12468,7 +12598,7 @@
       <c r="AB382" s="1"/>
       <c r="AC382" s="1"/>
     </row>
-    <row r="383" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -12499,7 +12629,7 @@
       <c r="AB383" s="1"/>
       <c r="AC383" s="1"/>
     </row>
-    <row r="384" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -12530,7 +12660,7 @@
       <c r="AB384" s="1"/>
       <c r="AC384" s="1"/>
     </row>
-    <row r="385" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -12561,7 +12691,7 @@
       <c r="AB385" s="1"/>
       <c r="AC385" s="1"/>
     </row>
-    <row r="386" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -12592,7 +12722,7 @@
       <c r="AB386" s="1"/>
       <c r="AC386" s="1"/>
     </row>
-    <row r="387" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -12623,7 +12753,7 @@
       <c r="AB387" s="1"/>
       <c r="AC387" s="1"/>
     </row>
-    <row r="388" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -12654,7 +12784,7 @@
       <c r="AB388" s="1"/>
       <c r="AC388" s="1"/>
     </row>
-    <row r="389" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -12685,7 +12815,7 @@
       <c r="AB389" s="1"/>
       <c r="AC389" s="1"/>
     </row>
-    <row r="390" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -12716,7 +12846,7 @@
       <c r="AB390" s="1"/>
       <c r="AC390" s="1"/>
     </row>
-    <row r="391" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -12747,7 +12877,7 @@
       <c r="AB391" s="1"/>
       <c r="AC391" s="1"/>
     </row>
-    <row r="392" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -12778,7 +12908,7 @@
       <c r="AB392" s="1"/>
       <c r="AC392" s="1"/>
     </row>
-    <row r="393" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -12809,7 +12939,7 @@
       <c r="AB393" s="1"/>
       <c r="AC393" s="1"/>
     </row>
-    <row r="394" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -12840,7 +12970,7 @@
       <c r="AB394" s="1"/>
       <c r="AC394" s="1"/>
     </row>
-    <row r="395" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -12871,7 +13001,7 @@
       <c r="AB395" s="1"/>
       <c r="AC395" s="1"/>
     </row>
-    <row r="396" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -12902,7 +13032,7 @@
       <c r="AB396" s="1"/>
       <c r="AC396" s="1"/>
     </row>
-    <row r="397" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12933,7 +13063,7 @@
       <c r="AB397" s="1"/>
       <c r="AC397" s="1"/>
     </row>
-    <row r="398" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12964,7 +13094,7 @@
       <c r="AB398" s="1"/>
       <c r="AC398" s="1"/>
     </row>
-    <row r="399" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12995,7 +13125,7 @@
       <c r="AB399" s="1"/>
       <c r="AC399" s="1"/>
     </row>
-    <row r="400" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -13026,7 +13156,7 @@
       <c r="AB400" s="1"/>
       <c r="AC400" s="1"/>
     </row>
-    <row r="401" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -13057,7 +13187,7 @@
       <c r="AB401" s="1"/>
       <c r="AC401" s="1"/>
     </row>
-    <row r="402" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -13088,7 +13218,7 @@
       <c r="AB402" s="1"/>
       <c r="AC402" s="1"/>
     </row>
-    <row r="403" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -13119,7 +13249,7 @@
       <c r="AB403" s="1"/>
       <c r="AC403" s="1"/>
     </row>
-    <row r="404" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -13150,7 +13280,7 @@
       <c r="AB404" s="1"/>
       <c r="AC404" s="1"/>
     </row>
-    <row r="405" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -13181,7 +13311,7 @@
       <c r="AB405" s="1"/>
       <c r="AC405" s="1"/>
     </row>
-    <row r="406" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -13212,7 +13342,7 @@
       <c r="AB406" s="1"/>
       <c r="AC406" s="1"/>
     </row>
-    <row r="407" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -13243,7 +13373,7 @@
       <c r="AB407" s="1"/>
       <c r="AC407" s="1"/>
     </row>
-    <row r="408" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -13274,7 +13404,7 @@
       <c r="AB408" s="1"/>
       <c r="AC408" s="1"/>
     </row>
-    <row r="409" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -13305,7 +13435,7 @@
       <c r="AB409" s="1"/>
       <c r="AC409" s="1"/>
     </row>
-    <row r="410" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -13336,7 +13466,7 @@
       <c r="AB410" s="1"/>
       <c r="AC410" s="1"/>
     </row>
-    <row r="411" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -13367,7 +13497,7 @@
       <c r="AB411" s="1"/>
       <c r="AC411" s="1"/>
     </row>
-    <row r="412" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -13398,7 +13528,7 @@
       <c r="AB412" s="1"/>
       <c r="AC412" s="1"/>
     </row>
-    <row r="413" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -13429,7 +13559,7 @@
       <c r="AB413" s="1"/>
       <c r="AC413" s="1"/>
     </row>
-    <row r="414" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -13460,7 +13590,7 @@
       <c r="AB414" s="1"/>
       <c r="AC414" s="1"/>
     </row>
-    <row r="415" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -13491,7 +13621,7 @@
       <c r="AB415" s="1"/>
       <c r="AC415" s="1"/>
     </row>
-    <row r="416" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -13522,7 +13652,7 @@
       <c r="AB416" s="1"/>
       <c r="AC416" s="1"/>
     </row>
-    <row r="417" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -13553,7 +13683,7 @@
       <c r="AB417" s="1"/>
       <c r="AC417" s="1"/>
     </row>
-    <row r="418" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -13584,7 +13714,7 @@
       <c r="AB418" s="1"/>
       <c r="AC418" s="1"/>
     </row>
-    <row r="419" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -13615,7 +13745,7 @@
       <c r="AB419" s="1"/>
       <c r="AC419" s="1"/>
     </row>
-    <row r="420" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -13646,7 +13776,7 @@
       <c r="AB420" s="1"/>
       <c r="AC420" s="1"/>
     </row>
-    <row r="421" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -13677,7 +13807,7 @@
       <c r="AB421" s="1"/>
       <c r="AC421" s="1"/>
     </row>
-    <row r="422" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -13708,7 +13838,7 @@
       <c r="AB422" s="1"/>
       <c r="AC422" s="1"/>
     </row>
-    <row r="423" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -13739,7 +13869,7 @@
       <c r="AB423" s="1"/>
       <c r="AC423" s="1"/>
     </row>
-    <row r="424" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -13770,7 +13900,7 @@
       <c r="AB424" s="1"/>
       <c r="AC424" s="1"/>
     </row>
-    <row r="425" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -13801,7 +13931,7 @@
       <c r="AB425" s="1"/>
       <c r="AC425" s="1"/>
     </row>
-    <row r="426" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -13832,7 +13962,7 @@
       <c r="AB426" s="1"/>
       <c r="AC426" s="1"/>
     </row>
-    <row r="427" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -13863,7 +13993,7 @@
       <c r="AB427" s="1"/>
       <c r="AC427" s="1"/>
     </row>
-    <row r="428" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -13894,7 +14024,7 @@
       <c r="AB428" s="1"/>
       <c r="AC428" s="1"/>
     </row>
-    <row r="429" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -13925,7 +14055,7 @@
       <c r="AB429" s="1"/>
       <c r="AC429" s="1"/>
     </row>
-    <row r="430" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -13956,7 +14086,7 @@
       <c r="AB430" s="1"/>
       <c r="AC430" s="1"/>
     </row>
-    <row r="431" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -13987,7 +14117,7 @@
       <c r="AB431" s="1"/>
       <c r="AC431" s="1"/>
     </row>
-    <row r="432" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -14018,7 +14148,7 @@
       <c r="AB432" s="1"/>
       <c r="AC432" s="1"/>
     </row>
-    <row r="433" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -14049,7 +14179,7 @@
       <c r="AB433" s="1"/>
       <c r="AC433" s="1"/>
     </row>
-    <row r="434" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -14080,7 +14210,7 @@
       <c r="AB434" s="1"/>
       <c r="AC434" s="1"/>
     </row>
-    <row r="435" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -14111,7 +14241,7 @@
       <c r="AB435" s="1"/>
       <c r="AC435" s="1"/>
     </row>
-    <row r="436" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -14142,7 +14272,7 @@
       <c r="AB436" s="1"/>
       <c r="AC436" s="1"/>
     </row>
-    <row r="437" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -14173,7 +14303,7 @@
       <c r="AB437" s="1"/>
       <c r="AC437" s="1"/>
     </row>
-    <row r="438" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -14204,7 +14334,7 @@
       <c r="AB438" s="1"/>
       <c r="AC438" s="1"/>
     </row>
-    <row r="439" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -14235,7 +14365,7 @@
       <c r="AB439" s="1"/>
       <c r="AC439" s="1"/>
     </row>
-    <row r="440" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -14266,7 +14396,7 @@
       <c r="AB440" s="1"/>
       <c r="AC440" s="1"/>
     </row>
-    <row r="441" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -14297,7 +14427,7 @@
       <c r="AB441" s="1"/>
       <c r="AC441" s="1"/>
     </row>
-    <row r="442" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -14328,7 +14458,7 @@
       <c r="AB442" s="1"/>
       <c r="AC442" s="1"/>
     </row>
-    <row r="443" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -14359,7 +14489,7 @@
       <c r="AB443" s="1"/>
       <c r="AC443" s="1"/>
     </row>
-    <row r="444" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -14390,7 +14520,7 @@
       <c r="AB444" s="1"/>
       <c r="AC444" s="1"/>
     </row>
-    <row r="445" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -14421,7 +14551,7 @@
       <c r="AB445" s="1"/>
       <c r="AC445" s="1"/>
     </row>
-    <row r="446" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -14452,7 +14582,7 @@
       <c r="AB446" s="1"/>
       <c r="AC446" s="1"/>
     </row>
-    <row r="447" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -14483,7 +14613,7 @@
       <c r="AB447" s="1"/>
       <c r="AC447" s="1"/>
     </row>
-    <row r="448" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -14514,7 +14644,7 @@
       <c r="AB448" s="1"/>
       <c r="AC448" s="1"/>
     </row>
-    <row r="449" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -14545,7 +14675,7 @@
       <c r="AB449" s="1"/>
       <c r="AC449" s="1"/>
     </row>
-    <row r="450" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -14576,7 +14706,7 @@
       <c r="AB450" s="1"/>
       <c r="AC450" s="1"/>
     </row>
-    <row r="451" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -14607,7 +14737,7 @@
       <c r="AB451" s="1"/>
       <c r="AC451" s="1"/>
     </row>
-    <row r="452" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -14638,7 +14768,7 @@
       <c r="AB452" s="1"/>
       <c r="AC452" s="1"/>
     </row>
-    <row r="453" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -14669,7 +14799,7 @@
       <c r="AB453" s="1"/>
       <c r="AC453" s="1"/>
     </row>
-    <row r="454" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -14700,7 +14830,7 @@
       <c r="AB454" s="1"/>
       <c r="AC454" s="1"/>
     </row>
-    <row r="455" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -14731,7 +14861,7 @@
       <c r="AB455" s="1"/>
       <c r="AC455" s="1"/>
     </row>
-    <row r="456" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -14762,7 +14892,7 @@
       <c r="AB456" s="1"/>
       <c r="AC456" s="1"/>
     </row>
-    <row r="457" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -14793,7 +14923,7 @@
       <c r="AB457" s="1"/>
       <c r="AC457" s="1"/>
     </row>
-    <row r="458" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -14824,7 +14954,7 @@
       <c r="AB458" s="1"/>
       <c r="AC458" s="1"/>
     </row>
-    <row r="459" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -14855,7 +14985,7 @@
       <c r="AB459" s="1"/>
       <c r="AC459" s="1"/>
     </row>
-    <row r="460" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -14886,7 +15016,7 @@
       <c r="AB460" s="1"/>
       <c r="AC460" s="1"/>
     </row>
-    <row r="461" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -14917,7 +15047,7 @@
       <c r="AB461" s="1"/>
       <c r="AC461" s="1"/>
     </row>
-    <row r="462" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -14948,7 +15078,7 @@
       <c r="AB462" s="1"/>
       <c r="AC462" s="1"/>
     </row>
-    <row r="463" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -14979,7 +15109,7 @@
       <c r="AB463" s="1"/>
       <c r="AC463" s="1"/>
     </row>
-    <row r="464" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -15010,7 +15140,7 @@
       <c r="AB464" s="1"/>
       <c r="AC464" s="1"/>
     </row>
-    <row r="465" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -15041,7 +15171,7 @@
       <c r="AB465" s="1"/>
       <c r="AC465" s="1"/>
     </row>
-    <row r="466" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -15072,7 +15202,7 @@
       <c r="AB466" s="1"/>
       <c r="AC466" s="1"/>
     </row>
-    <row r="467" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -15103,7 +15233,7 @@
       <c r="AB467" s="1"/>
       <c r="AC467" s="1"/>
     </row>
-    <row r="468" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -15134,7 +15264,7 @@
       <c r="AB468" s="1"/>
       <c r="AC468" s="1"/>
     </row>
-    <row r="469" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -15165,7 +15295,7 @@
       <c r="AB469" s="1"/>
       <c r="AC469" s="1"/>
     </row>
-    <row r="470" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -15196,7 +15326,7 @@
       <c r="AB470" s="1"/>
       <c r="AC470" s="1"/>
     </row>
-    <row r="471" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -15227,7 +15357,7 @@
       <c r="AB471" s="1"/>
       <c r="AC471" s="1"/>
     </row>
-    <row r="472" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -15258,7 +15388,7 @@
       <c r="AB472" s="1"/>
       <c r="AC472" s="1"/>
     </row>
-    <row r="473" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -15289,7 +15419,7 @@
       <c r="AB473" s="1"/>
       <c r="AC473" s="1"/>
     </row>
-    <row r="474" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -15320,7 +15450,7 @@
       <c r="AB474" s="1"/>
       <c r="AC474" s="1"/>
     </row>
-    <row r="475" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -15351,7 +15481,7 @@
       <c r="AB475" s="1"/>
       <c r="AC475" s="1"/>
     </row>
-    <row r="476" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -15382,7 +15512,7 @@
       <c r="AB476" s="1"/>
       <c r="AC476" s="1"/>
     </row>
-    <row r="477" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -15413,7 +15543,7 @@
       <c r="AB477" s="1"/>
       <c r="AC477" s="1"/>
     </row>
-    <row r="478" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -15444,7 +15574,7 @@
       <c r="AB478" s="1"/>
       <c r="AC478" s="1"/>
     </row>
-    <row r="479" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -15475,7 +15605,7 @@
       <c r="AB479" s="1"/>
       <c r="AC479" s="1"/>
     </row>
-    <row r="480" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -15506,7 +15636,7 @@
       <c r="AB480" s="1"/>
       <c r="AC480" s="1"/>
     </row>
-    <row r="481" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -15537,7 +15667,7 @@
       <c r="AB481" s="1"/>
       <c r="AC481" s="1"/>
     </row>
-    <row r="482" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -15568,7 +15698,7 @@
       <c r="AB482" s="1"/>
       <c r="AC482" s="1"/>
     </row>
-    <row r="483" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -15599,7 +15729,7 @@
       <c r="AB483" s="1"/>
       <c r="AC483" s="1"/>
     </row>
-    <row r="484" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -15630,7 +15760,7 @@
       <c r="AB484" s="1"/>
       <c r="AC484" s="1"/>
     </row>
-    <row r="485" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -15661,7 +15791,7 @@
       <c r="AB485" s="1"/>
       <c r="AC485" s="1"/>
     </row>
-    <row r="486" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -15692,7 +15822,7 @@
       <c r="AB486" s="1"/>
       <c r="AC486" s="1"/>
     </row>
-    <row r="487" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -15723,7 +15853,7 @@
       <c r="AB487" s="1"/>
       <c r="AC487" s="1"/>
     </row>
-    <row r="488" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -15754,7 +15884,7 @@
       <c r="AB488" s="1"/>
       <c r="AC488" s="1"/>
     </row>
-    <row r="489" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -15785,7 +15915,7 @@
       <c r="AB489" s="1"/>
       <c r="AC489" s="1"/>
     </row>
-    <row r="490" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -15816,7 +15946,7 @@
       <c r="AB490" s="1"/>
       <c r="AC490" s="1"/>
     </row>
-    <row r="491" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -15847,7 +15977,7 @@
       <c r="AB491" s="1"/>
       <c r="AC491" s="1"/>
     </row>
-    <row r="492" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -15878,7 +16008,7 @@
       <c r="AB492" s="1"/>
       <c r="AC492" s="1"/>
     </row>
-    <row r="493" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -15909,7 +16039,7 @@
       <c r="AB493" s="1"/>
       <c r="AC493" s="1"/>
     </row>
-    <row r="494" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -15940,7 +16070,7 @@
       <c r="AB494" s="1"/>
       <c r="AC494" s="1"/>
     </row>
-    <row r="495" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -15971,7 +16101,7 @@
       <c r="AB495" s="1"/>
       <c r="AC495" s="1"/>
     </row>
-    <row r="496" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -16002,7 +16132,7 @@
       <c r="AB496" s="1"/>
       <c r="AC496" s="1"/>
     </row>
-    <row r="497" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -16033,7 +16163,7 @@
       <c r="AB497" s="1"/>
       <c r="AC497" s="1"/>
     </row>
-    <row r="498" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -16064,7 +16194,7 @@
       <c r="AB498" s="1"/>
       <c r="AC498" s="1"/>
     </row>
-    <row r="499" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -16095,7 +16225,7 @@
       <c r="AB499" s="1"/>
       <c r="AC499" s="1"/>
     </row>
-    <row r="500" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -16126,7 +16256,7 @@
       <c r="AB500" s="1"/>
       <c r="AC500" s="1"/>
     </row>
-    <row r="501" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -16157,7 +16287,7 @@
       <c r="AB501" s="1"/>
       <c r="AC501" s="1"/>
     </row>
-    <row r="502" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -16188,7 +16318,7 @@
       <c r="AB502" s="1"/>
       <c r="AC502" s="1"/>
     </row>
-    <row r="503" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -16219,7 +16349,7 @@
       <c r="AB503" s="1"/>
       <c r="AC503" s="1"/>
     </row>
-    <row r="504" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -16250,7 +16380,7 @@
       <c r="AB504" s="1"/>
       <c r="AC504" s="1"/>
     </row>
-    <row r="505" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -16281,7 +16411,7 @@
       <c r="AB505" s="1"/>
       <c r="AC505" s="1"/>
     </row>
-    <row r="506" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -16312,7 +16442,7 @@
       <c r="AB506" s="1"/>
       <c r="AC506" s="1"/>
     </row>
-    <row r="507" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -16343,7 +16473,7 @@
       <c r="AB507" s="1"/>
       <c r="AC507" s="1"/>
     </row>
-    <row r="508" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -16374,7 +16504,7 @@
       <c r="AB508" s="1"/>
       <c r="AC508" s="1"/>
     </row>
-    <row r="509" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -16405,7 +16535,7 @@
       <c r="AB509" s="1"/>
       <c r="AC509" s="1"/>
     </row>
-    <row r="510" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -16436,7 +16566,7 @@
       <c r="AB510" s="1"/>
       <c r="AC510" s="1"/>
     </row>
-    <row r="511" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -16467,7 +16597,7 @@
       <c r="AB511" s="1"/>
       <c r="AC511" s="1"/>
     </row>
-    <row r="512" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -16498,7 +16628,7 @@
       <c r="AB512" s="1"/>
       <c r="AC512" s="1"/>
     </row>
-    <row r="513" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -16529,7 +16659,7 @@
       <c r="AB513" s="1"/>
       <c r="AC513" s="1"/>
     </row>
-    <row r="514" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -16560,7 +16690,7 @@
       <c r="AB514" s="1"/>
       <c r="AC514" s="1"/>
     </row>
-    <row r="515" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -16591,7 +16721,7 @@
       <c r="AB515" s="1"/>
       <c r="AC515" s="1"/>
     </row>
-    <row r="516" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -16622,7 +16752,7 @@
       <c r="AB516" s="1"/>
       <c r="AC516" s="1"/>
     </row>
-    <row r="517" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -16653,7 +16783,7 @@
       <c r="AB517" s="1"/>
       <c r="AC517" s="1"/>
     </row>
-    <row r="518" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -16684,7 +16814,7 @@
       <c r="AB518" s="1"/>
       <c r="AC518" s="1"/>
     </row>
-    <row r="519" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -16715,7 +16845,7 @@
       <c r="AB519" s="1"/>
       <c r="AC519" s="1"/>
     </row>
-    <row r="520" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -16746,7 +16876,7 @@
       <c r="AB520" s="1"/>
       <c r="AC520" s="1"/>
     </row>
-    <row r="521" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -16777,7 +16907,7 @@
       <c r="AB521" s="1"/>
       <c r="AC521" s="1"/>
     </row>
-    <row r="522" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -16808,7 +16938,7 @@
       <c r="AB522" s="1"/>
       <c r="AC522" s="1"/>
     </row>
-    <row r="523" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -16839,7 +16969,7 @@
       <c r="AB523" s="1"/>
       <c r="AC523" s="1"/>
     </row>
-    <row r="524" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -16870,7 +17000,7 @@
       <c r="AB524" s="1"/>
       <c r="AC524" s="1"/>
     </row>
-    <row r="525" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -16901,7 +17031,7 @@
       <c r="AB525" s="1"/>
       <c r="AC525" s="1"/>
     </row>
-    <row r="526" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -16932,7 +17062,7 @@
       <c r="AB526" s="1"/>
       <c r="AC526" s="1"/>
     </row>
-    <row r="527" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -16963,7 +17093,7 @@
       <c r="AB527" s="1"/>
       <c r="AC527" s="1"/>
     </row>
-    <row r="528" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -16994,7 +17124,7 @@
       <c r="AB528" s="1"/>
       <c r="AC528" s="1"/>
     </row>
-    <row r="529" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -17025,7 +17155,7 @@
       <c r="AB529" s="1"/>
       <c r="AC529" s="1"/>
     </row>
-    <row r="530" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -17056,7 +17186,7 @@
       <c r="AB530" s="1"/>
       <c r="AC530" s="1"/>
     </row>
-    <row r="531" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -17087,7 +17217,7 @@
       <c r="AB531" s="1"/>
       <c r="AC531" s="1"/>
     </row>
-    <row r="532" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -17118,7 +17248,7 @@
       <c r="AB532" s="1"/>
       <c r="AC532" s="1"/>
     </row>
-    <row r="533" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -17149,7 +17279,7 @@
       <c r="AB533" s="1"/>
       <c r="AC533" s="1"/>
     </row>
-    <row r="534" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -17180,7 +17310,7 @@
       <c r="AB534" s="1"/>
       <c r="AC534" s="1"/>
     </row>
-    <row r="535" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -17211,7 +17341,7 @@
       <c r="AB535" s="1"/>
       <c r="AC535" s="1"/>
     </row>
-    <row r="536" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -17242,7 +17372,7 @@
       <c r="AB536" s="1"/>
       <c r="AC536" s="1"/>
     </row>
-    <row r="537" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -17273,7 +17403,7 @@
       <c r="AB537" s="1"/>
       <c r="AC537" s="1"/>
     </row>
-    <row r="538" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -17304,7 +17434,7 @@
       <c r="AB538" s="1"/>
       <c r="AC538" s="1"/>
     </row>
-    <row r="539" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -17335,7 +17465,7 @@
       <c r="AB539" s="1"/>
       <c r="AC539" s="1"/>
     </row>
-    <row r="540" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -17366,7 +17496,7 @@
       <c r="AB540" s="1"/>
       <c r="AC540" s="1"/>
     </row>
-    <row r="541" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -17397,7 +17527,7 @@
       <c r="AB541" s="1"/>
       <c r="AC541" s="1"/>
     </row>
-    <row r="542" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -17428,7 +17558,7 @@
       <c r="AB542" s="1"/>
       <c r="AC542" s="1"/>
     </row>
-    <row r="543" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -17459,7 +17589,7 @@
       <c r="AB543" s="1"/>
       <c r="AC543" s="1"/>
     </row>
-    <row r="544" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -17490,7 +17620,7 @@
       <c r="AB544" s="1"/>
       <c r="AC544" s="1"/>
     </row>
-    <row r="545" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -17521,7 +17651,7 @@
       <c r="AB545" s="1"/>
       <c r="AC545" s="1"/>
     </row>
-    <row r="546" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -17552,7 +17682,7 @@
       <c r="AB546" s="1"/>
       <c r="AC546" s="1"/>
     </row>
-    <row r="547" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -17583,7 +17713,7 @@
       <c r="AB547" s="1"/>
       <c r="AC547" s="1"/>
     </row>
-    <row r="548" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -17614,7 +17744,7 @@
       <c r="AB548" s="1"/>
       <c r="AC548" s="1"/>
     </row>
-    <row r="549" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -17645,7 +17775,7 @@
       <c r="AB549" s="1"/>
       <c r="AC549" s="1"/>
     </row>
-    <row r="550" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -17676,7 +17806,7 @@
       <c r="AB550" s="1"/>
       <c r="AC550" s="1"/>
     </row>
-    <row r="551" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -17707,7 +17837,7 @@
       <c r="AB551" s="1"/>
       <c r="AC551" s="1"/>
     </row>
-    <row r="552" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -17738,7 +17868,7 @@
       <c r="AB552" s="1"/>
       <c r="AC552" s="1"/>
     </row>
-    <row r="553" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -17769,7 +17899,7 @@
       <c r="AB553" s="1"/>
       <c r="AC553" s="1"/>
     </row>
-    <row r="554" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -17800,7 +17930,7 @@
       <c r="AB554" s="1"/>
       <c r="AC554" s="1"/>
     </row>
-    <row r="555" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -17831,7 +17961,7 @@
       <c r="AB555" s="1"/>
       <c r="AC555" s="1"/>
     </row>
-    <row r="556" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -17862,7 +17992,7 @@
       <c r="AB556" s="1"/>
       <c r="AC556" s="1"/>
     </row>
-    <row r="557" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -17893,7 +18023,7 @@
       <c r="AB557" s="1"/>
       <c r="AC557" s="1"/>
     </row>
-    <row r="558" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -17924,7 +18054,7 @@
       <c r="AB558" s="1"/>
       <c r="AC558" s="1"/>
     </row>
-    <row r="559" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -17955,7 +18085,7 @@
       <c r="AB559" s="1"/>
       <c r="AC559" s="1"/>
     </row>
-    <row r="560" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -17986,7 +18116,7 @@
       <c r="AB560" s="1"/>
       <c r="AC560" s="1"/>
     </row>
-    <row r="561" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -18017,7 +18147,7 @@
       <c r="AB561" s="1"/>
       <c r="AC561" s="1"/>
     </row>
-    <row r="562" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -18048,7 +18178,7 @@
       <c r="AB562" s="1"/>
       <c r="AC562" s="1"/>
     </row>
-    <row r="563" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -18079,7 +18209,7 @@
       <c r="AB563" s="1"/>
       <c r="AC563" s="1"/>
     </row>
-    <row r="564" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -18110,7 +18240,7 @@
       <c r="AB564" s="1"/>
       <c r="AC564" s="1"/>
     </row>
-    <row r="565" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -18141,7 +18271,7 @@
       <c r="AB565" s="1"/>
       <c r="AC565" s="1"/>
     </row>
-    <row r="566" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -18172,7 +18302,7 @@
       <c r="AB566" s="1"/>
       <c r="AC566" s="1"/>
     </row>
-    <row r="567" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -18203,7 +18333,7 @@
       <c r="AB567" s="1"/>
       <c r="AC567" s="1"/>
     </row>
-    <row r="568" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -18234,7 +18364,7 @@
       <c r="AB568" s="1"/>
       <c r="AC568" s="1"/>
     </row>
-    <row r="569" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -18265,7 +18395,7 @@
       <c r="AB569" s="1"/>
       <c r="AC569" s="1"/>
     </row>
-    <row r="570" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -18296,7 +18426,7 @@
       <c r="AB570" s="1"/>
       <c r="AC570" s="1"/>
     </row>
-    <row r="571" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -18327,7 +18457,7 @@
       <c r="AB571" s="1"/>
       <c r="AC571" s="1"/>
     </row>
-    <row r="572" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -18358,7 +18488,7 @@
       <c r="AB572" s="1"/>
       <c r="AC572" s="1"/>
     </row>
-    <row r="573" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -18389,7 +18519,7 @@
       <c r="AB573" s="1"/>
       <c r="AC573" s="1"/>
     </row>
-    <row r="574" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -18420,7 +18550,7 @@
       <c r="AB574" s="1"/>
       <c r="AC574" s="1"/>
     </row>
-    <row r="575" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -18451,7 +18581,7 @@
       <c r="AB575" s="1"/>
       <c r="AC575" s="1"/>
     </row>
-    <row r="576" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -18482,7 +18612,7 @@
       <c r="AB576" s="1"/>
       <c r="AC576" s="1"/>
     </row>
-    <row r="577" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -18513,7 +18643,7 @@
       <c r="AB577" s="1"/>
       <c r="AC577" s="1"/>
     </row>
-    <row r="578" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -18544,7 +18674,7 @@
       <c r="AB578" s="1"/>
       <c r="AC578" s="1"/>
     </row>
-    <row r="579" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -18575,7 +18705,7 @@
       <c r="AB579" s="1"/>
       <c r="AC579" s="1"/>
     </row>
-    <row r="580" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -18606,7 +18736,7 @@
       <c r="AB580" s="1"/>
       <c r="AC580" s="1"/>
     </row>
-    <row r="581" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -18637,7 +18767,7 @@
       <c r="AB581" s="1"/>
       <c r="AC581" s="1"/>
     </row>
-    <row r="582" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -18668,7 +18798,7 @@
       <c r="AB582" s="1"/>
       <c r="AC582" s="1"/>
     </row>
-    <row r="583" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -18699,7 +18829,7 @@
       <c r="AB583" s="1"/>
       <c r="AC583" s="1"/>
     </row>
-    <row r="584" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -18730,7 +18860,7 @@
       <c r="AB584" s="1"/>
       <c r="AC584" s="1"/>
     </row>
-    <row r="585" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -18761,7 +18891,7 @@
       <c r="AB585" s="1"/>
       <c r="AC585" s="1"/>
     </row>
-    <row r="586" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -18792,7 +18922,7 @@
       <c r="AB586" s="1"/>
       <c r="AC586" s="1"/>
     </row>
-    <row r="587" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -18823,7 +18953,7 @@
       <c r="AB587" s="1"/>
       <c r="AC587" s="1"/>
     </row>
-    <row r="588" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -18854,7 +18984,7 @@
       <c r="AB588" s="1"/>
       <c r="AC588" s="1"/>
     </row>
-    <row r="589" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -18885,7 +19015,7 @@
       <c r="AB589" s="1"/>
       <c r="AC589" s="1"/>
     </row>
-    <row r="590" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -18916,7 +19046,7 @@
       <c r="AB590" s="1"/>
       <c r="AC590" s="1"/>
     </row>
-    <row r="591" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -18947,7 +19077,7 @@
       <c r="AB591" s="1"/>
       <c r="AC591" s="1"/>
     </row>
-    <row r="592" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -18978,7 +19108,7 @@
       <c r="AB592" s="1"/>
       <c r="AC592" s="1"/>
     </row>
-    <row r="593" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -19009,7 +19139,7 @@
       <c r="AB593" s="1"/>
       <c r="AC593" s="1"/>
     </row>
-    <row r="594" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -19040,7 +19170,7 @@
       <c r="AB594" s="1"/>
       <c r="AC594" s="1"/>
     </row>
-    <row r="595" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -19071,7 +19201,7 @@
       <c r="AB595" s="1"/>
       <c r="AC595" s="1"/>
     </row>
-    <row r="596" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -19102,7 +19232,7 @@
       <c r="AB596" s="1"/>
       <c r="AC596" s="1"/>
     </row>
-    <row r="597" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -19133,7 +19263,7 @@
       <c r="AB597" s="1"/>
       <c r="AC597" s="1"/>
     </row>
-    <row r="598" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -19164,7 +19294,7 @@
       <c r="AB598" s="1"/>
       <c r="AC598" s="1"/>
     </row>
-    <row r="599" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -19195,7 +19325,7 @@
       <c r="AB599" s="1"/>
       <c r="AC599" s="1"/>
     </row>
-    <row r="600" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -19226,7 +19356,7 @@
       <c r="AB600" s="1"/>
       <c r="AC600" s="1"/>
     </row>
-    <row r="601" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -19257,7 +19387,7 @@
       <c r="AB601" s="1"/>
       <c r="AC601" s="1"/>
     </row>
-    <row r="602" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -19288,7 +19418,7 @@
       <c r="AB602" s="1"/>
       <c r="AC602" s="1"/>
     </row>
-    <row r="603" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -19319,7 +19449,7 @@
       <c r="AB603" s="1"/>
       <c r="AC603" s="1"/>
     </row>
-    <row r="604" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -19350,7 +19480,7 @@
       <c r="AB604" s="1"/>
       <c r="AC604" s="1"/>
     </row>
-    <row r="605" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -19381,7 +19511,7 @@
       <c r="AB605" s="1"/>
       <c r="AC605" s="1"/>
     </row>
-    <row r="606" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -19412,7 +19542,7 @@
       <c r="AB606" s="1"/>
       <c r="AC606" s="1"/>
     </row>
-    <row r="607" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -19443,7 +19573,7 @@
       <c r="AB607" s="1"/>
       <c r="AC607" s="1"/>
     </row>
-    <row r="608" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -19474,7 +19604,7 @@
       <c r="AB608" s="1"/>
       <c r="AC608" s="1"/>
     </row>
-    <row r="609" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -19505,7 +19635,7 @@
       <c r="AB609" s="1"/>
       <c r="AC609" s="1"/>
     </row>
-    <row r="610" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -19536,7 +19666,7 @@
       <c r="AB610" s="1"/>
       <c r="AC610" s="1"/>
     </row>
-    <row r="611" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -19567,7 +19697,7 @@
       <c r="AB611" s="1"/>
       <c r="AC611" s="1"/>
     </row>
-    <row r="612" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -19598,7 +19728,7 @@
       <c r="AB612" s="1"/>
       <c r="AC612" s="1"/>
     </row>
-    <row r="613" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -19629,7 +19759,7 @@
       <c r="AB613" s="1"/>
       <c r="AC613" s="1"/>
     </row>
-    <row r="614" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -19660,7 +19790,7 @@
       <c r="AB614" s="1"/>
       <c r="AC614" s="1"/>
     </row>
-    <row r="615" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -19691,7 +19821,7 @@
       <c r="AB615" s="1"/>
       <c r="AC615" s="1"/>
     </row>
-    <row r="616" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -19722,7 +19852,7 @@
       <c r="AB616" s="1"/>
       <c r="AC616" s="1"/>
     </row>
-    <row r="617" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -19753,7 +19883,7 @@
       <c r="AB617" s="1"/>
       <c r="AC617" s="1"/>
     </row>
-    <row r="618" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -19784,7 +19914,7 @@
       <c r="AB618" s="1"/>
       <c r="AC618" s="1"/>
     </row>
-    <row r="619" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -19815,7 +19945,7 @@
       <c r="AB619" s="1"/>
       <c r="AC619" s="1"/>
     </row>
-    <row r="620" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -19846,7 +19976,7 @@
       <c r="AB620" s="1"/>
       <c r="AC620" s="1"/>
     </row>
-    <row r="621" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -19877,7 +20007,7 @@
       <c r="AB621" s="1"/>
       <c r="AC621" s="1"/>
     </row>
-    <row r="622" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -19908,7 +20038,7 @@
       <c r="AB622" s="1"/>
       <c r="AC622" s="1"/>
     </row>
-    <row r="623" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -19939,7 +20069,7 @@
       <c r="AB623" s="1"/>
       <c r="AC623" s="1"/>
     </row>
-    <row r="624" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -19970,7 +20100,7 @@
       <c r="AB624" s="1"/>
       <c r="AC624" s="1"/>
     </row>
-    <row r="625" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -20001,7 +20131,7 @@
       <c r="AB625" s="1"/>
       <c r="AC625" s="1"/>
     </row>
-    <row r="626" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -20032,7 +20162,7 @@
       <c r="AB626" s="1"/>
       <c r="AC626" s="1"/>
     </row>
-    <row r="627" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -20063,7 +20193,7 @@
       <c r="AB627" s="1"/>
       <c r="AC627" s="1"/>
     </row>
-    <row r="628" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -20094,7 +20224,7 @@
       <c r="AB628" s="1"/>
       <c r="AC628" s="1"/>
     </row>
-    <row r="629" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -20125,7 +20255,7 @@
       <c r="AB629" s="1"/>
       <c r="AC629" s="1"/>
     </row>
-    <row r="630" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -20156,7 +20286,7 @@
       <c r="AB630" s="1"/>
       <c r="AC630" s="1"/>
     </row>
-    <row r="631" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -20187,7 +20317,7 @@
       <c r="AB631" s="1"/>
       <c r="AC631" s="1"/>
     </row>
-    <row r="632" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -20218,7 +20348,7 @@
       <c r="AB632" s="1"/>
       <c r="AC632" s="1"/>
     </row>
-    <row r="633" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -20249,7 +20379,7 @@
       <c r="AB633" s="1"/>
       <c r="AC633" s="1"/>
     </row>
-    <row r="634" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -20280,7 +20410,7 @@
       <c r="AB634" s="1"/>
       <c r="AC634" s="1"/>
     </row>
-    <row r="635" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -20311,7 +20441,7 @@
       <c r="AB635" s="1"/>
       <c r="AC635" s="1"/>
     </row>
-    <row r="636" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -20342,7 +20472,7 @@
       <c r="AB636" s="1"/>
       <c r="AC636" s="1"/>
     </row>
-    <row r="637" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -20373,7 +20503,7 @@
       <c r="AB637" s="1"/>
       <c r="AC637" s="1"/>
     </row>
-    <row r="638" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -20404,7 +20534,7 @@
       <c r="AB638" s="1"/>
       <c r="AC638" s="1"/>
     </row>
-    <row r="639" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -20435,7 +20565,7 @@
       <c r="AB639" s="1"/>
       <c r="AC639" s="1"/>
     </row>
-    <row r="640" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -20466,7 +20596,7 @@
       <c r="AB640" s="1"/>
       <c r="AC640" s="1"/>
     </row>
-    <row r="641" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -20497,7 +20627,7 @@
       <c r="AB641" s="1"/>
       <c r="AC641" s="1"/>
     </row>
-    <row r="642" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -20528,7 +20658,7 @@
       <c r="AB642" s="1"/>
       <c r="AC642" s="1"/>
     </row>
-    <row r="643" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -20559,7 +20689,7 @@
       <c r="AB643" s="1"/>
       <c r="AC643" s="1"/>
     </row>
-    <row r="644" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -20590,7 +20720,7 @@
       <c r="AB644" s="1"/>
       <c r="AC644" s="1"/>
     </row>
-    <row r="645" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -20621,7 +20751,7 @@
       <c r="AB645" s="1"/>
       <c r="AC645" s="1"/>
     </row>
-    <row r="646" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -20652,7 +20782,7 @@
       <c r="AB646" s="1"/>
       <c r="AC646" s="1"/>
     </row>
-    <row r="647" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -20683,7 +20813,7 @@
       <c r="AB647" s="1"/>
       <c r="AC647" s="1"/>
     </row>
-    <row r="648" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -20714,7 +20844,7 @@
       <c r="AB648" s="1"/>
       <c r="AC648" s="1"/>
     </row>
-    <row r="649" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -20745,7 +20875,7 @@
       <c r="AB649" s="1"/>
       <c r="AC649" s="1"/>
     </row>
-    <row r="650" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -20776,7 +20906,7 @@
       <c r="AB650" s="1"/>
       <c r="AC650" s="1"/>
     </row>
-    <row r="651" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -20807,7 +20937,7 @@
       <c r="AB651" s="1"/>
       <c r="AC651" s="1"/>
     </row>
-    <row r="652" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -20838,7 +20968,7 @@
       <c r="AB652" s="1"/>
       <c r="AC652" s="1"/>
     </row>
-    <row r="653" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -20869,7 +20999,7 @@
       <c r="AB653" s="1"/>
       <c r="AC653" s="1"/>
     </row>
-    <row r="654" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -20900,7 +21030,7 @@
       <c r="AB654" s="1"/>
       <c r="AC654" s="1"/>
     </row>
-    <row r="655" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -20931,7 +21061,7 @@
       <c r="AB655" s="1"/>
       <c r="AC655" s="1"/>
     </row>
-    <row r="656" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -20962,7 +21092,7 @@
       <c r="AB656" s="1"/>
       <c r="AC656" s="1"/>
     </row>
-    <row r="657" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -20993,7 +21123,7 @@
       <c r="AB657" s="1"/>
       <c r="AC657" s="1"/>
     </row>
-    <row r="658" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -21024,7 +21154,7 @@
       <c r="AB658" s="1"/>
       <c r="AC658" s="1"/>
     </row>
-    <row r="659" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -21055,7 +21185,7 @@
       <c r="AB659" s="1"/>
       <c r="AC659" s="1"/>
     </row>
-    <row r="660" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -21086,7 +21216,7 @@
       <c r="AB660" s="1"/>
       <c r="AC660" s="1"/>
     </row>
-    <row r="661" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -21117,7 +21247,7 @@
       <c r="AB661" s="1"/>
       <c r="AC661" s="1"/>
     </row>
-    <row r="662" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -21148,7 +21278,7 @@
       <c r="AB662" s="1"/>
       <c r="AC662" s="1"/>
     </row>
-    <row r="663" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -21179,7 +21309,7 @@
       <c r="AB663" s="1"/>
       <c r="AC663" s="1"/>
     </row>
-    <row r="664" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -21210,7 +21340,7 @@
       <c r="AB664" s="1"/>
       <c r="AC664" s="1"/>
     </row>
-    <row r="665" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -21241,7 +21371,7 @@
       <c r="AB665" s="1"/>
       <c r="AC665" s="1"/>
     </row>
-    <row r="666" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -21272,7 +21402,7 @@
       <c r="AB666" s="1"/>
       <c r="AC666" s="1"/>
     </row>
-    <row r="667" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -21303,7 +21433,7 @@
       <c r="AB667" s="1"/>
       <c r="AC667" s="1"/>
     </row>
-    <row r="668" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -21334,7 +21464,7 @@
       <c r="AB668" s="1"/>
       <c r="AC668" s="1"/>
     </row>
-    <row r="669" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -21365,7 +21495,7 @@
       <c r="AB669" s="1"/>
       <c r="AC669" s="1"/>
     </row>
-    <row r="670" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -21396,7 +21526,7 @@
       <c r="AB670" s="1"/>
       <c r="AC670" s="1"/>
     </row>
-    <row r="671" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -21427,7 +21557,7 @@
       <c r="AB671" s="1"/>
       <c r="AC671" s="1"/>
     </row>
-    <row r="672" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -21458,7 +21588,7 @@
       <c r="AB672" s="1"/>
       <c r="AC672" s="1"/>
     </row>
-    <row r="673" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -21489,7 +21619,7 @@
       <c r="AB673" s="1"/>
       <c r="AC673" s="1"/>
     </row>
-    <row r="674" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -21520,7 +21650,7 @@
       <c r="AB674" s="1"/>
       <c r="AC674" s="1"/>
     </row>
-    <row r="675" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -21551,7 +21681,7 @@
       <c r="AB675" s="1"/>
       <c r="AC675" s="1"/>
     </row>
-    <row r="676" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -21582,7 +21712,7 @@
       <c r="AB676" s="1"/>
       <c r="AC676" s="1"/>
     </row>
-    <row r="677" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -21613,7 +21743,7 @@
       <c r="AB677" s="1"/>
       <c r="AC677" s="1"/>
     </row>
-    <row r="678" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -21644,7 +21774,7 @@
       <c r="AB678" s="1"/>
       <c r="AC678" s="1"/>
     </row>
-    <row r="679" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -21675,7 +21805,7 @@
       <c r="AB679" s="1"/>
       <c r="AC679" s="1"/>
     </row>
-    <row r="680" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -21706,7 +21836,7 @@
       <c r="AB680" s="1"/>
       <c r="AC680" s="1"/>
     </row>
-    <row r="681" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -21737,7 +21867,7 @@
       <c r="AB681" s="1"/>
       <c r="AC681" s="1"/>
     </row>
-    <row r="682" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -21768,7 +21898,7 @@
       <c r="AB682" s="1"/>
       <c r="AC682" s="1"/>
     </row>
-    <row r="683" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -21799,7 +21929,7 @@
       <c r="AB683" s="1"/>
       <c r="AC683" s="1"/>
     </row>
-    <row r="684" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -21830,7 +21960,7 @@
       <c r="AB684" s="1"/>
       <c r="AC684" s="1"/>
     </row>
-    <row r="685" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -21861,7 +21991,7 @@
       <c r="AB685" s="1"/>
       <c r="AC685" s="1"/>
     </row>
-    <row r="686" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -21892,7 +22022,7 @@
       <c r="AB686" s="1"/>
       <c r="AC686" s="1"/>
     </row>
-    <row r="687" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -21923,7 +22053,7 @@
       <c r="AB687" s="1"/>
       <c r="AC687" s="1"/>
     </row>
-    <row r="688" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -21954,7 +22084,7 @@
       <c r="AB688" s="1"/>
       <c r="AC688" s="1"/>
     </row>
-    <row r="689" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -21985,7 +22115,7 @@
       <c r="AB689" s="1"/>
       <c r="AC689" s="1"/>
     </row>
-    <row r="690" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -22016,7 +22146,7 @@
       <c r="AB690" s="1"/>
       <c r="AC690" s="1"/>
     </row>
-    <row r="691" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -22047,7 +22177,7 @@
       <c r="AB691" s="1"/>
       <c r="AC691" s="1"/>
     </row>
-    <row r="692" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -22078,7 +22208,7 @@
       <c r="AB692" s="1"/>
       <c r="AC692" s="1"/>
     </row>
-    <row r="693" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -22109,7 +22239,7 @@
       <c r="AB693" s="1"/>
       <c r="AC693" s="1"/>
     </row>
-    <row r="694" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -22140,7 +22270,7 @@
       <c r="AB694" s="1"/>
       <c r="AC694" s="1"/>
     </row>
-    <row r="695" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -22171,7 +22301,7 @@
       <c r="AB695" s="1"/>
       <c r="AC695" s="1"/>
     </row>
-    <row r="696" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -22202,7 +22332,7 @@
       <c r="AB696" s="1"/>
       <c r="AC696" s="1"/>
     </row>
-    <row r="697" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -22233,7 +22363,7 @@
       <c r="AB697" s="1"/>
       <c r="AC697" s="1"/>
     </row>
-    <row r="698" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -22264,7 +22394,7 @@
       <c r="AB698" s="1"/>
       <c r="AC698" s="1"/>
     </row>
-    <row r="699" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -22295,7 +22425,7 @@
       <c r="AB699" s="1"/>
       <c r="AC699" s="1"/>
     </row>
-    <row r="700" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -22326,7 +22456,7 @@
       <c r="AB700" s="1"/>
       <c r="AC700" s="1"/>
     </row>
-    <row r="701" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -22357,7 +22487,7 @@
       <c r="AB701" s="1"/>
       <c r="AC701" s="1"/>
     </row>
-    <row r="702" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -22388,7 +22518,7 @@
       <c r="AB702" s="1"/>
       <c r="AC702" s="1"/>
     </row>
-    <row r="703" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -22419,7 +22549,7 @@
       <c r="AB703" s="1"/>
       <c r="AC703" s="1"/>
     </row>
-    <row r="704" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -22450,7 +22580,7 @@
       <c r="AB704" s="1"/>
       <c r="AC704" s="1"/>
     </row>
-    <row r="705" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -22481,7 +22611,7 @@
       <c r="AB705" s="1"/>
       <c r="AC705" s="1"/>
     </row>
-    <row r="706" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -22512,7 +22642,7 @@
       <c r="AB706" s="1"/>
       <c r="AC706" s="1"/>
     </row>
-    <row r="707" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -22543,7 +22673,7 @@
       <c r="AB707" s="1"/>
       <c r="AC707" s="1"/>
     </row>
-    <row r="708" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -22574,7 +22704,7 @@
       <c r="AB708" s="1"/>
       <c r="AC708" s="1"/>
     </row>
-    <row r="709" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -22605,7 +22735,7 @@
       <c r="AB709" s="1"/>
       <c r="AC709" s="1"/>
     </row>
-    <row r="710" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -22636,7 +22766,7 @@
       <c r="AB710" s="1"/>
       <c r="AC710" s="1"/>
     </row>
-    <row r="711" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -22667,7 +22797,7 @@
       <c r="AB711" s="1"/>
       <c r="AC711" s="1"/>
     </row>
-    <row r="712" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -22698,7 +22828,7 @@
       <c r="AB712" s="1"/>
       <c r="AC712" s="1"/>
     </row>
-    <row r="713" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -22729,7 +22859,7 @@
       <c r="AB713" s="1"/>
       <c r="AC713" s="1"/>
     </row>
-    <row r="714" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -22760,7 +22890,7 @@
       <c r="AB714" s="1"/>
       <c r="AC714" s="1"/>
     </row>
-    <row r="715" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -22791,7 +22921,7 @@
       <c r="AB715" s="1"/>
       <c r="AC715" s="1"/>
     </row>
-    <row r="716" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -22822,7 +22952,7 @@
       <c r="AB716" s="1"/>
       <c r="AC716" s="1"/>
     </row>
-    <row r="717" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -22853,7 +22983,7 @@
       <c r="AB717" s="1"/>
       <c r="AC717" s="1"/>
     </row>
-    <row r="718" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -22884,7 +23014,7 @@
       <c r="AB718" s="1"/>
       <c r="AC718" s="1"/>
     </row>
-    <row r="719" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -22915,7 +23045,7 @@
       <c r="AB719" s="1"/>
       <c r="AC719" s="1"/>
     </row>
-    <row r="720" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -22946,7 +23076,7 @@
       <c r="AB720" s="1"/>
       <c r="AC720" s="1"/>
     </row>
-    <row r="721" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -22977,7 +23107,7 @@
       <c r="AB721" s="1"/>
       <c r="AC721" s="1"/>
     </row>
-    <row r="722" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -23008,7 +23138,7 @@
       <c r="AB722" s="1"/>
       <c r="AC722" s="1"/>
     </row>
-    <row r="723" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -23039,7 +23169,7 @@
       <c r="AB723" s="1"/>
       <c r="AC723" s="1"/>
     </row>
-    <row r="724" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -23070,7 +23200,7 @@
       <c r="AB724" s="1"/>
       <c r="AC724" s="1"/>
     </row>
-    <row r="725" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -23101,7 +23231,7 @@
       <c r="AB725" s="1"/>
       <c r="AC725" s="1"/>
     </row>
-    <row r="726" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -23132,7 +23262,7 @@
       <c r="AB726" s="1"/>
       <c r="AC726" s="1"/>
     </row>
-    <row r="727" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -23163,7 +23293,7 @@
       <c r="AB727" s="1"/>
       <c r="AC727" s="1"/>
     </row>
-    <row r="728" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -23194,7 +23324,7 @@
       <c r="AB728" s="1"/>
       <c r="AC728" s="1"/>
     </row>
-    <row r="729" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -23225,7 +23355,7 @@
       <c r="AB729" s="1"/>
       <c r="AC729" s="1"/>
     </row>
-    <row r="730" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -23256,7 +23386,7 @@
       <c r="AB730" s="1"/>
       <c r="AC730" s="1"/>
     </row>
-    <row r="731" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -23287,7 +23417,7 @@
       <c r="AB731" s="1"/>
       <c r="AC731" s="1"/>
     </row>
-    <row r="732" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -23318,7 +23448,7 @@
       <c r="AB732" s="1"/>
       <c r="AC732" s="1"/>
     </row>
-    <row r="733" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -23349,7 +23479,7 @@
       <c r="AB733" s="1"/>
       <c r="AC733" s="1"/>
     </row>
-    <row r="734" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -23380,7 +23510,7 @@
       <c r="AB734" s="1"/>
       <c r="AC734" s="1"/>
     </row>
-    <row r="735" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -23411,7 +23541,7 @@
       <c r="AB735" s="1"/>
       <c r="AC735" s="1"/>
     </row>
-    <row r="736" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -23442,7 +23572,7 @@
       <c r="AB736" s="1"/>
       <c r="AC736" s="1"/>
     </row>
-    <row r="737" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -23473,7 +23603,7 @@
       <c r="AB737" s="1"/>
       <c r="AC737" s="1"/>
     </row>
-    <row r="738" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -23504,7 +23634,7 @@
       <c r="AB738" s="1"/>
       <c r="AC738" s="1"/>
     </row>
-    <row r="739" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -23535,7 +23665,7 @@
       <c r="AB739" s="1"/>
       <c r="AC739" s="1"/>
     </row>
-    <row r="740" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -23566,7 +23696,7 @@
       <c r="AB740" s="1"/>
       <c r="AC740" s="1"/>
     </row>
-    <row r="741" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -23597,7 +23727,7 @@
       <c r="AB741" s="1"/>
       <c r="AC741" s="1"/>
     </row>
-    <row r="742" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -23628,7 +23758,7 @@
       <c r="AB742" s="1"/>
       <c r="AC742" s="1"/>
     </row>
-    <row r="743" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -23659,7 +23789,7 @@
       <c r="AB743" s="1"/>
       <c r="AC743" s="1"/>
     </row>
-    <row r="744" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -23690,7 +23820,7 @@
       <c r="AB744" s="1"/>
       <c r="AC744" s="1"/>
     </row>
-    <row r="745" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -23721,7 +23851,7 @@
       <c r="AB745" s="1"/>
       <c r="AC745" s="1"/>
     </row>
-    <row r="746" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -23752,7 +23882,7 @@
       <c r="AB746" s="1"/>
       <c r="AC746" s="1"/>
     </row>
-    <row r="747" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -23783,7 +23913,7 @@
       <c r="AB747" s="1"/>
       <c r="AC747" s="1"/>
     </row>
-    <row r="748" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -23814,7 +23944,7 @@
       <c r="AB748" s="1"/>
       <c r="AC748" s="1"/>
     </row>
-    <row r="749" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -23845,7 +23975,7 @@
       <c r="AB749" s="1"/>
       <c r="AC749" s="1"/>
     </row>
-    <row r="750" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -23876,7 +24006,7 @@
       <c r="AB750" s="1"/>
       <c r="AC750" s="1"/>
     </row>
-    <row r="751" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -23907,7 +24037,7 @@
       <c r="AB751" s="1"/>
       <c r="AC751" s="1"/>
     </row>
-    <row r="752" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -23938,7 +24068,7 @@
       <c r="AB752" s="1"/>
       <c r="AC752" s="1"/>
     </row>
-    <row r="753" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -23969,7 +24099,7 @@
       <c r="AB753" s="1"/>
       <c r="AC753" s="1"/>
     </row>
-    <row r="754" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -24000,7 +24130,7 @@
       <c r="AB754" s="1"/>
       <c r="AC754" s="1"/>
     </row>
-    <row r="755" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -24031,7 +24161,7 @@
       <c r="AB755" s="1"/>
       <c r="AC755" s="1"/>
     </row>
-    <row r="756" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -24062,7 +24192,7 @@
       <c r="AB756" s="1"/>
       <c r="AC756" s="1"/>
     </row>
-    <row r="757" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -24093,7 +24223,7 @@
       <c r="AB757" s="1"/>
       <c r="AC757" s="1"/>
     </row>
-    <row r="758" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -24124,7 +24254,7 @@
       <c r="AB758" s="1"/>
       <c r="AC758" s="1"/>
     </row>
-    <row r="759" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -24155,7 +24285,7 @@
       <c r="AB759" s="1"/>
       <c r="AC759" s="1"/>
     </row>
-    <row r="760" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -24186,7 +24316,7 @@
       <c r="AB760" s="1"/>
       <c r="AC760" s="1"/>
     </row>
-    <row r="761" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -24217,7 +24347,7 @@
       <c r="AB761" s="1"/>
       <c r="AC761" s="1"/>
     </row>
-    <row r="762" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -24248,7 +24378,7 @@
       <c r="AB762" s="1"/>
       <c r="AC762" s="1"/>
     </row>
-    <row r="763" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -24279,7 +24409,7 @@
       <c r="AB763" s="1"/>
       <c r="AC763" s="1"/>
     </row>
-    <row r="764" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -24310,7 +24440,7 @@
       <c r="AB764" s="1"/>
       <c r="AC764" s="1"/>
     </row>
-    <row r="765" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -24341,7 +24471,7 @@
       <c r="AB765" s="1"/>
       <c r="AC765" s="1"/>
     </row>
-    <row r="766" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -24372,7 +24502,7 @@
       <c r="AB766" s="1"/>
       <c r="AC766" s="1"/>
     </row>
-    <row r="767" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -24403,7 +24533,7 @@
       <c r="AB767" s="1"/>
       <c r="AC767" s="1"/>
     </row>
-    <row r="768" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -24434,7 +24564,7 @@
       <c r="AB768" s="1"/>
       <c r="AC768" s="1"/>
     </row>
-    <row r="769" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -24465,7 +24595,7 @@
       <c r="AB769" s="1"/>
       <c r="AC769" s="1"/>
     </row>
-    <row r="770" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -24496,7 +24626,7 @@
       <c r="AB770" s="1"/>
       <c r="AC770" s="1"/>
     </row>
-    <row r="771" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -24527,7 +24657,7 @@
       <c r="AB771" s="1"/>
       <c r="AC771" s="1"/>
     </row>
-    <row r="772" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -24558,7 +24688,7 @@
       <c r="AB772" s="1"/>
       <c r="AC772" s="1"/>
     </row>
-    <row r="773" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -24589,7 +24719,7 @@
       <c r="AB773" s="1"/>
       <c r="AC773" s="1"/>
     </row>
-    <row r="774" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -24620,7 +24750,7 @@
       <c r="AB774" s="1"/>
       <c r="AC774" s="1"/>
     </row>
-    <row r="775" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -24651,7 +24781,7 @@
       <c r="AB775" s="1"/>
       <c r="AC775" s="1"/>
     </row>
-    <row r="776" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -24682,7 +24812,7 @@
       <c r="AB776" s="1"/>
       <c r="AC776" s="1"/>
     </row>
-    <row r="777" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -24713,7 +24843,7 @@
       <c r="AB777" s="1"/>
       <c r="AC777" s="1"/>
     </row>
-    <row r="778" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -24744,7 +24874,7 @@
       <c r="AB778" s="1"/>
       <c r="AC778" s="1"/>
     </row>
-    <row r="779" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -24775,7 +24905,7 @@
       <c r="AB779" s="1"/>
       <c r="AC779" s="1"/>
     </row>
-    <row r="780" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -24806,7 +24936,7 @@
       <c r="AB780" s="1"/>
       <c r="AC780" s="1"/>
     </row>
-    <row r="781" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -24837,7 +24967,7 @@
       <c r="AB781" s="1"/>
       <c r="AC781" s="1"/>
     </row>
-    <row r="782" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -24868,7 +24998,7 @@
       <c r="AB782" s="1"/>
       <c r="AC782" s="1"/>
     </row>
-    <row r="783" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -24899,7 +25029,7 @@
       <c r="AB783" s="1"/>
       <c r="AC783" s="1"/>
     </row>
-    <row r="784" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -24930,7 +25060,7 @@
       <c r="AB784" s="1"/>
       <c r="AC784" s="1"/>
     </row>
-    <row r="785" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -24961,7 +25091,7 @@
       <c r="AB785" s="1"/>
       <c r="AC785" s="1"/>
     </row>
-    <row r="786" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -24992,7 +25122,7 @@
       <c r="AB786" s="1"/>
       <c r="AC786" s="1"/>
     </row>
-    <row r="787" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -25023,7 +25153,7 @@
       <c r="AB787" s="1"/>
       <c r="AC787" s="1"/>
     </row>
-    <row r="788" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -25054,7 +25184,7 @@
       <c r="AB788" s="1"/>
       <c r="AC788" s="1"/>
     </row>
-    <row r="789" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -25085,7 +25215,7 @@
       <c r="AB789" s="1"/>
       <c r="AC789" s="1"/>
     </row>
-    <row r="790" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -25116,7 +25246,7 @@
       <c r="AB790" s="1"/>
       <c r="AC790" s="1"/>
     </row>
-    <row r="791" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -25147,7 +25277,7 @@
       <c r="AB791" s="1"/>
       <c r="AC791" s="1"/>
     </row>
-    <row r="792" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -25178,7 +25308,7 @@
       <c r="AB792" s="1"/>
       <c r="AC792" s="1"/>
     </row>
-    <row r="793" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -25209,7 +25339,7 @@
       <c r="AB793" s="1"/>
       <c r="AC793" s="1"/>
     </row>
-    <row r="794" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -25240,7 +25370,7 @@
       <c r="AB794" s="1"/>
       <c r="AC794" s="1"/>
     </row>
-    <row r="795" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -25271,7 +25401,7 @@
       <c r="AB795" s="1"/>
       <c r="AC795" s="1"/>
     </row>
-    <row r="796" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -25302,7 +25432,7 @@
       <c r="AB796" s="1"/>
       <c r="AC796" s="1"/>
     </row>
-    <row r="797" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -25333,7 +25463,7 @@
       <c r="AB797" s="1"/>
       <c r="AC797" s="1"/>
     </row>
-    <row r="798" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -25364,7 +25494,7 @@
       <c r="AB798" s="1"/>
       <c r="AC798" s="1"/>
     </row>
-    <row r="799" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -25395,7 +25525,7 @@
       <c r="AB799" s="1"/>
       <c r="AC799" s="1"/>
     </row>
-    <row r="800" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -25426,7 +25556,7 @@
       <c r="AB800" s="1"/>
       <c r="AC800" s="1"/>
     </row>
-    <row r="801" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -25457,7 +25587,7 @@
       <c r="AB801" s="1"/>
       <c r="AC801" s="1"/>
     </row>
-    <row r="802" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -25488,7 +25618,7 @@
       <c r="AB802" s="1"/>
       <c r="AC802" s="1"/>
     </row>
-    <row r="803" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -25519,7 +25649,7 @@
       <c r="AB803" s="1"/>
       <c r="AC803" s="1"/>
     </row>
-    <row r="804" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -25550,7 +25680,7 @@
       <c r="AB804" s="1"/>
       <c r="AC804" s="1"/>
     </row>
-    <row r="805" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -25581,7 +25711,7 @@
       <c r="AB805" s="1"/>
       <c r="AC805" s="1"/>
     </row>
-    <row r="806" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -25612,7 +25742,7 @@
       <c r="AB806" s="1"/>
       <c r="AC806" s="1"/>
     </row>
-    <row r="807" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -25643,7 +25773,7 @@
       <c r="AB807" s="1"/>
       <c r="AC807" s="1"/>
     </row>
-    <row r="808" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -25674,7 +25804,7 @@
       <c r="AB808" s="1"/>
       <c r="AC808" s="1"/>
     </row>
-    <row r="809" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -25705,7 +25835,7 @@
       <c r="AB809" s="1"/>
       <c r="AC809" s="1"/>
     </row>
-    <row r="810" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -25736,7 +25866,7 @@
       <c r="AB810" s="1"/>
       <c r="AC810" s="1"/>
     </row>
-    <row r="811" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -25767,7 +25897,7 @@
       <c r="AB811" s="1"/>
       <c r="AC811" s="1"/>
     </row>
-    <row r="812" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -25798,7 +25928,7 @@
       <c r="AB812" s="1"/>
       <c r="AC812" s="1"/>
     </row>
-    <row r="813" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -25829,7 +25959,7 @@
       <c r="AB813" s="1"/>
       <c r="AC813" s="1"/>
     </row>
-    <row r="814" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -25860,7 +25990,7 @@
       <c r="AB814" s="1"/>
       <c r="AC814" s="1"/>
     </row>
-    <row r="815" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -25891,7 +26021,7 @@
       <c r="AB815" s="1"/>
       <c r="AC815" s="1"/>
     </row>
-    <row r="816" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -25922,7 +26052,7 @@
       <c r="AB816" s="1"/>
       <c r="AC816" s="1"/>
     </row>
-    <row r="817" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -25953,7 +26083,7 @@
       <c r="AB817" s="1"/>
       <c r="AC817" s="1"/>
     </row>
-    <row r="818" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -25984,7 +26114,7 @@
       <c r="AB818" s="1"/>
       <c r="AC818" s="1"/>
     </row>
-    <row r="819" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -26015,7 +26145,7 @@
       <c r="AB819" s="1"/>
       <c r="AC819" s="1"/>
     </row>
-    <row r="820" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -26046,7 +26176,7 @@
       <c r="AB820" s="1"/>
       <c r="AC820" s="1"/>
     </row>
-    <row r="821" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -26077,7 +26207,7 @@
       <c r="AB821" s="1"/>
       <c r="AC821" s="1"/>
     </row>
-    <row r="822" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -26108,7 +26238,7 @@
       <c r="AB822" s="1"/>
       <c r="AC822" s="1"/>
     </row>
-    <row r="823" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -26139,7 +26269,7 @@
       <c r="AB823" s="1"/>
       <c r="AC823" s="1"/>
     </row>
-    <row r="824" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -26170,7 +26300,7 @@
       <c r="AB824" s="1"/>
       <c r="AC824" s="1"/>
     </row>
-    <row r="825" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -26201,7 +26331,7 @@
       <c r="AB825" s="1"/>
       <c r="AC825" s="1"/>
     </row>
-    <row r="826" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -26232,7 +26362,7 @@
       <c r="AB826" s="1"/>
       <c r="AC826" s="1"/>
     </row>
-    <row r="827" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -26263,7 +26393,7 @@
       <c r="AB827" s="1"/>
       <c r="AC827" s="1"/>
     </row>
-    <row r="828" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -26294,7 +26424,7 @@
       <c r="AB828" s="1"/>
       <c r="AC828" s="1"/>
     </row>
-    <row r="829" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -26325,7 +26455,7 @@
       <c r="AB829" s="1"/>
       <c r="AC829" s="1"/>
     </row>
-    <row r="830" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -26356,7 +26486,7 @@
       <c r="AB830" s="1"/>
       <c r="AC830" s="1"/>
     </row>
-    <row r="831" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -26387,7 +26517,7 @@
       <c r="AB831" s="1"/>
       <c r="AC831" s="1"/>
     </row>
-    <row r="832" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -26418,7 +26548,7 @@
       <c r="AB832" s="1"/>
       <c r="AC832" s="1"/>
     </row>
-    <row r="833" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -26449,7 +26579,7 @@
       <c r="AB833" s="1"/>
       <c r="AC833" s="1"/>
     </row>
-    <row r="834" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -26480,7 +26610,7 @@
       <c r="AB834" s="1"/>
       <c r="AC834" s="1"/>
     </row>
-    <row r="835" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -26511,7 +26641,7 @@
       <c r="AB835" s="1"/>
       <c r="AC835" s="1"/>
     </row>
-    <row r="836" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -26542,7 +26672,7 @@
       <c r="AB836" s="1"/>
       <c r="AC836" s="1"/>
     </row>
-    <row r="837" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -26573,7 +26703,7 @@
       <c r="AB837" s="1"/>
       <c r="AC837" s="1"/>
     </row>
-    <row r="838" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -26604,7 +26734,7 @@
       <c r="AB838" s="1"/>
       <c r="AC838" s="1"/>
     </row>
-    <row r="839" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -26635,7 +26765,7 @@
       <c r="AB839" s="1"/>
       <c r="AC839" s="1"/>
     </row>
-    <row r="840" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -26666,7 +26796,7 @@
       <c r="AB840" s="1"/>
       <c r="AC840" s="1"/>
     </row>
-    <row r="841" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -26697,7 +26827,7 @@
       <c r="AB841" s="1"/>
       <c r="AC841" s="1"/>
     </row>
-    <row r="842" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -26728,7 +26858,7 @@
       <c r="AB842" s="1"/>
       <c r="AC842" s="1"/>
     </row>
-    <row r="843" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -26759,7 +26889,7 @@
       <c r="AB843" s="1"/>
       <c r="AC843" s="1"/>
     </row>
-    <row r="844" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -26790,7 +26920,7 @@
       <c r="AB844" s="1"/>
       <c r="AC844" s="1"/>
     </row>
-    <row r="845" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -26821,7 +26951,7 @@
       <c r="AB845" s="1"/>
       <c r="AC845" s="1"/>
     </row>
-    <row r="846" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -26852,7 +26982,7 @@
       <c r="AB846" s="1"/>
       <c r="AC846" s="1"/>
     </row>
-    <row r="847" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -26883,7 +27013,7 @@
       <c r="AB847" s="1"/>
       <c r="AC847" s="1"/>
     </row>
-    <row r="848" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -26914,7 +27044,7 @@
       <c r="AB848" s="1"/>
       <c r="AC848" s="1"/>
     </row>
-    <row r="849" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -26945,7 +27075,7 @@
       <c r="AB849" s="1"/>
       <c r="AC849" s="1"/>
     </row>
-    <row r="850" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -26976,7 +27106,7 @@
       <c r="AB850" s="1"/>
       <c r="AC850" s="1"/>
     </row>
-    <row r="851" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -27007,7 +27137,7 @@
       <c r="AB851" s="1"/>
       <c r="AC851" s="1"/>
     </row>
-    <row r="852" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -27038,7 +27168,7 @@
       <c r="AB852" s="1"/>
       <c r="AC852" s="1"/>
     </row>
-    <row r="853" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -27069,7 +27199,7 @@
       <c r="AB853" s="1"/>
       <c r="AC853" s="1"/>
     </row>
-    <row r="854" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -27100,7 +27230,7 @@
       <c r="AB854" s="1"/>
       <c r="AC854" s="1"/>
     </row>
-    <row r="855" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -27131,7 +27261,7 @@
       <c r="AB855" s="1"/>
       <c r="AC855" s="1"/>
     </row>
-    <row r="856" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -27162,7 +27292,7 @@
       <c r="AB856" s="1"/>
       <c r="AC856" s="1"/>
     </row>
-    <row r="857" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -27193,7 +27323,7 @@
       <c r="AB857" s="1"/>
       <c r="AC857" s="1"/>
     </row>
-    <row r="858" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -27224,7 +27354,7 @@
       <c r="AB858" s="1"/>
       <c r="AC858" s="1"/>
     </row>
-    <row r="859" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -27255,7 +27385,7 @@
       <c r="AB859" s="1"/>
       <c r="AC859" s="1"/>
     </row>
-    <row r="860" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -27286,7 +27416,7 @@
       <c r="AB860" s="1"/>
       <c r="AC860" s="1"/>
     </row>
-    <row r="861" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -27317,7 +27447,7 @@
       <c r="AB861" s="1"/>
       <c r="AC861" s="1"/>
     </row>
-    <row r="862" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -27348,7 +27478,7 @@
       <c r="AB862" s="1"/>
       <c r="AC862" s="1"/>
     </row>
-    <row r="863" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -27379,7 +27509,7 @@
       <c r="AB863" s="1"/>
       <c r="AC863" s="1"/>
     </row>
-    <row r="864" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -27410,7 +27540,7 @@
       <c r="AB864" s="1"/>
       <c r="AC864" s="1"/>
     </row>
-    <row r="865" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -27441,7 +27571,7 @@
       <c r="AB865" s="1"/>
       <c r="AC865" s="1"/>
     </row>
-    <row r="866" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -27472,7 +27602,7 @@
       <c r="AB866" s="1"/>
       <c r="AC866" s="1"/>
     </row>
-    <row r="867" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -27503,7 +27633,7 @@
       <c r="AB867" s="1"/>
       <c r="AC867" s="1"/>
     </row>
-    <row r="868" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -27534,7 +27664,7 @@
       <c r="AB868" s="1"/>
       <c r="AC868" s="1"/>
     </row>
-    <row r="869" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -27565,7 +27695,7 @@
       <c r="AB869" s="1"/>
       <c r="AC869" s="1"/>
     </row>
-    <row r="870" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -27596,7 +27726,7 @@
       <c r="AB870" s="1"/>
       <c r="AC870" s="1"/>
     </row>
-    <row r="871" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -27627,7 +27757,7 @@
       <c r="AB871" s="1"/>
       <c r="AC871" s="1"/>
     </row>
-    <row r="872" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -27658,7 +27788,7 @@
       <c r="AB872" s="1"/>
       <c r="AC872" s="1"/>
     </row>
-    <row r="873" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -27689,7 +27819,7 @@
       <c r="AB873" s="1"/>
       <c r="AC873" s="1"/>
     </row>
-    <row r="874" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -27720,7 +27850,7 @@
       <c r="AB874" s="1"/>
       <c r="AC874" s="1"/>
     </row>
-    <row r="875" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -27751,7 +27881,7 @@
       <c r="AB875" s="1"/>
       <c r="AC875" s="1"/>
     </row>
-    <row r="876" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -27782,7 +27912,7 @@
       <c r="AB876" s="1"/>
       <c r="AC876" s="1"/>
     </row>
-    <row r="877" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -27813,7 +27943,7 @@
       <c r="AB877" s="1"/>
       <c r="AC877" s="1"/>
     </row>
-    <row r="878" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -27844,7 +27974,7 @@
       <c r="AB878" s="1"/>
       <c r="AC878" s="1"/>
     </row>
-    <row r="879" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -27875,7 +28005,7 @@
       <c r="AB879" s="1"/>
       <c r="AC879" s="1"/>
     </row>
-    <row r="880" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -27906,7 +28036,7 @@
       <c r="AB880" s="1"/>
       <c r="AC880" s="1"/>
     </row>
-    <row r="881" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -27937,7 +28067,7 @@
       <c r="AB881" s="1"/>
       <c r="AC881" s="1"/>
     </row>
-    <row r="882" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -27968,7 +28098,7 @@
       <c r="AB882" s="1"/>
       <c r="AC882" s="1"/>
     </row>
-    <row r="883" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -27999,7 +28129,7 @@
       <c r="AB883" s="1"/>
       <c r="AC883" s="1"/>
     </row>
-    <row r="884" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -28030,7 +28160,7 @@
       <c r="AB884" s="1"/>
       <c r="AC884" s="1"/>
     </row>
-    <row r="885" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -28061,7 +28191,7 @@
       <c r="AB885" s="1"/>
       <c r="AC885" s="1"/>
     </row>
-    <row r="886" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -28092,7 +28222,7 @@
       <c r="AB886" s="1"/>
       <c r="AC886" s="1"/>
     </row>
-    <row r="887" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -28123,7 +28253,7 @@
       <c r="AB887" s="1"/>
       <c r="AC887" s="1"/>
     </row>
-    <row r="888" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -28154,7 +28284,7 @@
       <c r="AB888" s="1"/>
       <c r="AC888" s="1"/>
     </row>
-    <row r="889" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -28185,7 +28315,7 @@
       <c r="AB889" s="1"/>
       <c r="AC889" s="1"/>
     </row>
-    <row r="890" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -28216,7 +28346,7 @@
       <c r="AB890" s="1"/>
       <c r="AC890" s="1"/>
     </row>
-    <row r="891" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -28247,7 +28377,7 @@
       <c r="AB891" s="1"/>
       <c r="AC891" s="1"/>
     </row>
-    <row r="892" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -28278,7 +28408,7 @@
       <c r="AB892" s="1"/>
       <c r="AC892" s="1"/>
     </row>
-    <row r="893" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -28309,7 +28439,7 @@
       <c r="AB893" s="1"/>
       <c r="AC893" s="1"/>
     </row>
-    <row r="894" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -28340,7 +28470,7 @@
       <c r="AB894" s="1"/>
       <c r="AC894" s="1"/>
     </row>
-    <row r="895" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -28371,7 +28501,7 @@
       <c r="AB895" s="1"/>
       <c r="AC895" s="1"/>
     </row>
-    <row r="896" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -28402,7 +28532,7 @@
       <c r="AB896" s="1"/>
       <c r="AC896" s="1"/>
     </row>
-    <row r="897" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -28433,7 +28563,7 @@
       <c r="AB897" s="1"/>
       <c r="AC897" s="1"/>
     </row>
-    <row r="898" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -28464,7 +28594,7 @@
       <c r="AB898" s="1"/>
       <c r="AC898" s="1"/>
     </row>
-    <row r="899" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -28495,7 +28625,7 @@
       <c r="AB899" s="1"/>
       <c r="AC899" s="1"/>
     </row>
-    <row r="900" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -28526,7 +28656,7 @@
       <c r="AB900" s="1"/>
       <c r="AC900" s="1"/>
     </row>
-    <row r="901" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -28557,7 +28687,7 @@
       <c r="AB901" s="1"/>
       <c r="AC901" s="1"/>
     </row>
-    <row r="902" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -28588,7 +28718,7 @@
       <c r="AB902" s="1"/>
       <c r="AC902" s="1"/>
     </row>
-    <row r="903" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -28619,7 +28749,7 @@
       <c r="AB903" s="1"/>
       <c r="AC903" s="1"/>
     </row>
-    <row r="904" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -28650,7 +28780,7 @@
       <c r="AB904" s="1"/>
       <c r="AC904" s="1"/>
     </row>
-    <row r="905" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -28681,7 +28811,7 @@
       <c r="AB905" s="1"/>
       <c r="AC905" s="1"/>
     </row>
-    <row r="906" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -28712,7 +28842,7 @@
       <c r="AB906" s="1"/>
       <c r="AC906" s="1"/>
     </row>
-    <row r="907" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -28743,7 +28873,7 @@
       <c r="AB907" s="1"/>
       <c r="AC907" s="1"/>
     </row>
-    <row r="908" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -28774,7 +28904,7 @@
       <c r="AB908" s="1"/>
       <c r="AC908" s="1"/>
     </row>
-    <row r="909" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -28805,7 +28935,7 @@
       <c r="AB909" s="1"/>
       <c r="AC909" s="1"/>
     </row>
-    <row r="910" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -28836,7 +28966,7 @@
       <c r="AB910" s="1"/>
       <c r="AC910" s="1"/>
     </row>
-    <row r="911" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -28867,7 +28997,7 @@
       <c r="AB911" s="1"/>
       <c r="AC911" s="1"/>
     </row>
-    <row r="912" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -28898,7 +29028,7 @@
       <c r="AB912" s="1"/>
       <c r="AC912" s="1"/>
     </row>
-    <row r="913" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -28929,7 +29059,7 @@
       <c r="AB913" s="1"/>
       <c r="AC913" s="1"/>
     </row>
-    <row r="914" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -28960,7 +29090,7 @@
       <c r="AB914" s="1"/>
       <c r="AC914" s="1"/>
     </row>
-    <row r="915" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -28991,7 +29121,7 @@
       <c r="AB915" s="1"/>
       <c r="AC915" s="1"/>
     </row>
-    <row r="916" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -29022,7 +29152,7 @@
       <c r="AB916" s="1"/>
       <c r="AC916" s="1"/>
     </row>
-    <row r="917" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -29053,7 +29183,7 @@
       <c r="AB917" s="1"/>
       <c r="AC917" s="1"/>
     </row>
-    <row r="918" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -29084,7 +29214,7 @@
       <c r="AB918" s="1"/>
       <c r="AC918" s="1"/>
     </row>
-    <row r="919" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -29115,7 +29245,7 @@
       <c r="AB919" s="1"/>
       <c r="AC919" s="1"/>
     </row>
-    <row r="920" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -29146,7 +29276,7 @@
       <c r="AB920" s="1"/>
       <c r="AC920" s="1"/>
     </row>
-    <row r="921" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -29177,7 +29307,7 @@
       <c r="AB921" s="1"/>
       <c r="AC921" s="1"/>
     </row>
-    <row r="922" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -29208,7 +29338,7 @@
       <c r="AB922" s="1"/>
       <c r="AC922" s="1"/>
     </row>
-    <row r="923" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -29239,7 +29369,7 @@
       <c r="AB923" s="1"/>
       <c r="AC923" s="1"/>
     </row>
-    <row r="924" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -29270,7 +29400,7 @@
       <c r="AB924" s="1"/>
       <c r="AC924" s="1"/>
     </row>
-    <row r="925" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -29301,7 +29431,7 @@
       <c r="AB925" s="1"/>
       <c r="AC925" s="1"/>
     </row>
-    <row r="926" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -29332,7 +29462,7 @@
       <c r="AB926" s="1"/>
       <c r="AC926" s="1"/>
     </row>
-    <row r="927" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -29363,7 +29493,7 @@
       <c r="AB927" s="1"/>
       <c r="AC927" s="1"/>
     </row>
-    <row r="928" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -29394,7 +29524,7 @@
       <c r="AB928" s="1"/>
       <c r="AC928" s="1"/>
     </row>
-    <row r="929" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -29425,7 +29555,7 @@
       <c r="AB929" s="1"/>
       <c r="AC929" s="1"/>
     </row>
-    <row r="930" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -29456,7 +29586,7 @@
       <c r="AB930" s="1"/>
       <c r="AC930" s="1"/>
     </row>
-    <row r="931" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -29487,7 +29617,7 @@
       <c r="AB931" s="1"/>
       <c r="AC931" s="1"/>
     </row>
-    <row r="932" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -29518,7 +29648,7 @@
       <c r="AB932" s="1"/>
       <c r="AC932" s="1"/>
     </row>
-    <row r="933" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -29549,7 +29679,7 @@
       <c r="AB933" s="1"/>
       <c r="AC933" s="1"/>
     </row>
-    <row r="934" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -29580,7 +29710,7 @@
       <c r="AB934" s="1"/>
       <c r="AC934" s="1"/>
     </row>
-    <row r="935" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -29611,7 +29741,7 @@
       <c r="AB935" s="1"/>
       <c r="AC935" s="1"/>
     </row>
-    <row r="936" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -29642,7 +29772,7 @@
       <c r="AB936" s="1"/>
       <c r="AC936" s="1"/>
     </row>
-    <row r="937" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -29673,7 +29803,7 @@
       <c r="AB937" s="1"/>
       <c r="AC937" s="1"/>
     </row>
-    <row r="938" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -29704,7 +29834,7 @@
       <c r="AB938" s="1"/>
       <c r="AC938" s="1"/>
     </row>
-    <row r="939" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -29735,7 +29865,7 @@
       <c r="AB939" s="1"/>
       <c r="AC939" s="1"/>
     </row>
-    <row r="940" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -29766,7 +29896,7 @@
       <c r="AB940" s="1"/>
       <c r="AC940" s="1"/>
     </row>
-    <row r="941" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -29797,7 +29927,7 @@
       <c r="AB941" s="1"/>
       <c r="AC941" s="1"/>
     </row>
-    <row r="942" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -29828,7 +29958,7 @@
       <c r="AB942" s="1"/>
       <c r="AC942" s="1"/>
     </row>
-    <row r="943" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -29859,7 +29989,7 @@
       <c r="AB943" s="1"/>
       <c r="AC943" s="1"/>
     </row>
-    <row r="944" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -29890,7 +30020,7 @@
       <c r="AB944" s="1"/>
       <c r="AC944" s="1"/>
     </row>
-    <row r="945" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -29921,7 +30051,7 @@
       <c r="AB945" s="1"/>
       <c r="AC945" s="1"/>
     </row>
-    <row r="946" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -29952,7 +30082,7 @@
       <c r="AB946" s="1"/>
       <c r="AC946" s="1"/>
     </row>
-    <row r="947" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -29983,7 +30113,7 @@
       <c r="AB947" s="1"/>
       <c r="AC947" s="1"/>
     </row>
-    <row r="948" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -30014,7 +30144,7 @@
       <c r="AB948" s="1"/>
       <c r="AC948" s="1"/>
     </row>
-    <row r="949" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -30045,7 +30175,7 @@
       <c r="AB949" s="1"/>
       <c r="AC949" s="1"/>
     </row>
-    <row r="950" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -30076,7 +30206,7 @@
       <c r="AB950" s="1"/>
       <c r="AC950" s="1"/>
     </row>
-    <row r="951" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -30107,7 +30237,7 @@
       <c r="AB951" s="1"/>
       <c r="AC951" s="1"/>
     </row>
-    <row r="952" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -30138,7 +30268,7 @@
       <c r="AB952" s="1"/>
       <c r="AC952" s="1"/>
     </row>
-    <row r="953" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -30169,7 +30299,7 @@
       <c r="AB953" s="1"/>
       <c r="AC953" s="1"/>
     </row>
-    <row r="954" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -30200,7 +30330,7 @@
       <c r="AB954" s="1"/>
       <c r="AC954" s="1"/>
     </row>
-    <row r="955" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -30231,7 +30361,7 @@
       <c r="AB955" s="1"/>
       <c r="AC955" s="1"/>
     </row>
-    <row r="956" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -30262,7 +30392,7 @@
       <c r="AB956" s="1"/>
       <c r="AC956" s="1"/>
     </row>
-    <row r="957" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -30293,7 +30423,7 @@
       <c r="AB957" s="1"/>
       <c r="AC957" s="1"/>
     </row>
-    <row r="958" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -30324,7 +30454,7 @@
       <c r="AB958" s="1"/>
       <c r="AC958" s="1"/>
     </row>
-    <row r="959" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -30355,7 +30485,7 @@
       <c r="AB959" s="1"/>
       <c r="AC959" s="1"/>
     </row>
-    <row r="960" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -30386,7 +30516,7 @@
       <c r="AB960" s="1"/>
       <c r="AC960" s="1"/>
     </row>
-    <row r="961" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -30417,7 +30547,7 @@
       <c r="AB961" s="1"/>
       <c r="AC961" s="1"/>
     </row>
-    <row r="962" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -30448,7 +30578,7 @@
       <c r="AB962" s="1"/>
       <c r="AC962" s="1"/>
     </row>
-    <row r="963" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -30479,7 +30609,7 @@
       <c r="AB963" s="1"/>
       <c r="AC963" s="1"/>
     </row>
-    <row r="964" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -30510,7 +30640,7 @@
       <c r="AB964" s="1"/>
       <c r="AC964" s="1"/>
     </row>
-    <row r="965" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -30541,7 +30671,7 @@
       <c r="AB965" s="1"/>
       <c r="AC965" s="1"/>
     </row>
-    <row r="966" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -30572,7 +30702,7 @@
       <c r="AB966" s="1"/>
       <c r="AC966" s="1"/>
     </row>
-    <row r="967" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -30603,7 +30733,7 @@
       <c r="AB967" s="1"/>
       <c r="AC967" s="1"/>
     </row>
-    <row r="968" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -30634,7 +30764,7 @@
       <c r="AB968" s="1"/>
       <c r="AC968" s="1"/>
     </row>
-    <row r="969" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -30665,7 +30795,7 @@
       <c r="AB969" s="1"/>
       <c r="AC969" s="1"/>
     </row>
-    <row r="970" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -30696,7 +30826,7 @@
       <c r="AB970" s="1"/>
       <c r="AC970" s="1"/>
     </row>
-    <row r="971" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -30727,7 +30857,7 @@
       <c r="AB971" s="1"/>
       <c r="AC971" s="1"/>
     </row>
-    <row r="972" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -30758,7 +30888,7 @@
       <c r="AB972" s="1"/>
       <c r="AC972" s="1"/>
     </row>
-    <row r="973" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -30789,7 +30919,7 @@
       <c r="AB973" s="1"/>
       <c r="AC973" s="1"/>
     </row>
-    <row r="974" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -30820,7 +30950,7 @@
       <c r="AB974" s="1"/>
       <c r="AC974" s="1"/>
     </row>
-    <row r="975" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -30851,7 +30981,7 @@
       <c r="AB975" s="1"/>
       <c r="AC975" s="1"/>
     </row>
-    <row r="976" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -30882,7 +31012,7 @@
       <c r="AB976" s="1"/>
       <c r="AC976" s="1"/>
     </row>
-    <row r="977" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -30913,7 +31043,7 @@
       <c r="AB977" s="1"/>
       <c r="AC977" s="1"/>
     </row>
-    <row r="978" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -30944,7 +31074,7 @@
       <c r="AB978" s="1"/>
       <c r="AC978" s="1"/>
     </row>
-    <row r="979" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -30975,7 +31105,7 @@
       <c r="AB979" s="1"/>
       <c r="AC979" s="1"/>
     </row>
-    <row r="980" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -31006,7 +31136,7 @@
       <c r="AB980" s="1"/>
       <c r="AC980" s="1"/>
     </row>
-    <row r="981" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -31037,7 +31167,7 @@
       <c r="AB981" s="1"/>
       <c r="AC981" s="1"/>
     </row>
-    <row r="982" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -31068,7 +31198,7 @@
       <c r="AB982" s="1"/>
       <c r="AC982" s="1"/>
     </row>
-    <row r="983" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -31099,7 +31229,7 @@
       <c r="AB983" s="1"/>
       <c r="AC983" s="1"/>
     </row>
-    <row r="984" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -31130,7 +31260,7 @@
       <c r="AB984" s="1"/>
       <c r="AC984" s="1"/>
     </row>
-    <row r="985" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -31161,7 +31291,7 @@
       <c r="AB985" s="1"/>
       <c r="AC985" s="1"/>
     </row>
-    <row r="986" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -31192,7 +31322,7 @@
       <c r="AB986" s="1"/>
       <c r="AC986" s="1"/>
     </row>
-    <row r="987" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -31223,7 +31353,7 @@
       <c r="AB987" s="1"/>
       <c r="AC987" s="1"/>
     </row>
-    <row r="988" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -31254,7 +31384,7 @@
       <c r="AB988" s="1"/>
       <c r="AC988" s="1"/>
     </row>
-    <row r="989" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -31285,7 +31415,7 @@
       <c r="AB989" s="1"/>
       <c r="AC989" s="1"/>
     </row>
-    <row r="990" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -31316,7 +31446,7 @@
       <c r="AB990" s="1"/>
       <c r="AC990" s="1"/>
     </row>
-    <row r="991" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -31347,7 +31477,7 @@
       <c r="AB991" s="1"/>
       <c r="AC991" s="1"/>
     </row>
-    <row r="992" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -31378,7 +31508,7 @@
       <c r="AB992" s="1"/>
       <c r="AC992" s="1"/>
     </row>
-    <row r="993" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -31409,7 +31539,7 @@
       <c r="AB993" s="1"/>
       <c r="AC993" s="1"/>
     </row>
-    <row r="994" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -31440,7 +31570,7 @@
       <c r="AB994" s="1"/>
       <c r="AC994" s="1"/>
     </row>
-    <row r="995" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -31471,7 +31601,7 @@
       <c r="AB995" s="1"/>
       <c r="AC995" s="1"/>
     </row>
-    <row r="996" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -31502,7 +31632,7 @@
       <c r="AB996" s="1"/>
       <c r="AC996" s="1"/>
     </row>
-    <row r="997" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -31533,7 +31663,7 @@
       <c r="AB997" s="1"/>
       <c r="AC997" s="1"/>
     </row>
-    <row r="998" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -31564,7 +31694,7 @@
       <c r="AB998" s="1"/>
       <c r="AC998" s="1"/>
     </row>
-    <row r="999" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -31595,7 +31725,7 @@
       <c r="AB999" s="1"/>
       <c r="AC999" s="1"/>
     </row>
-    <row r="1000" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -31626,7 +31756,7 @@
       <c r="AB1000" s="1"/>
       <c r="AC1000" s="1"/>
     </row>
-    <row r="1001" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="1"/>
